--- a/450 Questions/DSA Day-wise.xlsx
+++ b/450 Questions/DSA Day-wise.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programs\450 Questions\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B781712-D21B-4513-8DDD-2294E90D9F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -15,28 +24,28 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="32"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <sz val="32.0"/>
       </rPr>
       <t xml:space="preserve">COMPILED </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="32"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="32.0"/>
       </rPr>
       <t>DAY</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="32"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <sz val="32.0"/>
       </rPr>
       <t>-WISE DSA SHEET</t>
     </r>
@@ -47,28 +56,28 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <sz val="18.0"/>
       </rPr>
       <t xml:space="preserve">❤️ From </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF9900"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF9900"/>
-        <sz val="18.0"/>
       </rPr>
       <t>Siddharth Singh</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <sz val="18.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -85,18 +94,18 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="14.0"/>
-        <u/>
       </rPr>
       <t>https://youtu.be/A69Hwva4qKk</t>
     </r>
     <r>
       <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
-        <color rgb="FF0000FF"/>
-        <sz val="14.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -254,19 +263,19 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>C</t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0B4CB4"/>
         <rFont val="Calibri, Arial"/>
-        <color rgb="FF0B4CB4"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>heck whether one string is a rotation of another</t>
     </r>
@@ -1852,19 +1861,19 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>Rabin Kar</t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>p</t>
     </r>
@@ -1944,19 +1953,19 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>Hamming Distance</t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>(Imp.)</t>
     </r>
@@ -2015,19 +2024,19 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <sz val="24.0"/>
       </rPr>
       <t xml:space="preserve">DSA INTERVIEW  </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FF00FF00"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF00FF00"/>
-        <sz val="24.0"/>
       </rPr>
       <t>READY🎊</t>
     </r>
@@ -2036,476 +2045,526 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="d mmmm yyyy"/>
-    <numFmt numFmtId="165" formatCode="d mmm yyyy"/>
-    <numFmt numFmtId="166" formatCode="d mmm"/>
-    <numFmt numFmtId="167" formatCode="d mmmm"/>
+    <numFmt numFmtId="164" formatCode="d\ mmmm\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="d\ mmm\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="d\ mmm"/>
+    <numFmt numFmtId="167" formatCode="d\ mmmm"/>
   </numFmts>
-  <fonts count="79">
+  <fonts count="86">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="32.0"/>
+      <sz val="32"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FFFF9900"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="24.0"/>
+      <sz val="24"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF0B4CB4"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0B4CB4"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0B4CB4"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0B4CB4"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0B4CB4"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <i/>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0B4CB4"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0B4CB4"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="24.0"/>
+      <sz val="24"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF0B4CB4"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="36.0"/>
+      <sz val="36"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="15.0"/>
+      <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="32"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri, Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0B4CB4"/>
+      <name val="Calibri, Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF00FF00"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -2514,7 +2573,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2554,8 +2613,15 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -2565,6 +2631,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2579,348 +2646,166 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="108">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="19" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="34" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="35" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="51" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="54" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="60" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="63" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="64" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="65" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="66" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="67" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="68" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="69" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="70" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="71" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="72" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="73" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="74" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="75" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="19" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="34" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="35" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="38" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="39" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="41" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="42" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="43" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="44" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="45" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="46" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="48" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="50" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="51" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="53" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="54" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="7" fontId="55" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="58" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="59" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="60" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="61" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="63" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="64" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="65" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="66" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="67" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="68" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="69" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="70" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="71" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="72" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="73" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="74" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="75" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="78" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -3110,26 +2995,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:Z618"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="69.14"/>
-    <col customWidth="1" min="2" max="2" width="69.71"/>
-    <col customWidth="1" min="4" max="4" width="21.29"/>
+    <col min="1" max="1" width="69.109375" customWidth="1"/>
+    <col min="2" max="2" width="69.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="44.4" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3159,7 +3049,7 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="23.4" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -3191,7 +3081,7 @@
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="29.4" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
@@ -3223,7 +3113,7 @@
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="31.2" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -3255,7 +3145,7 @@
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
@@ -3285,7 +3175,7 @@
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="24.6" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
@@ -3315,7 +3205,7 @@
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" ht="25.2" customHeight="1">
       <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
@@ -3345,7 +3235,7 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" ht="34.799999999999997" customHeight="1">
       <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
@@ -3379,12 +3269,12 @@
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" ht="25.8" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="16">
-        <v>450.0</v>
+        <v>450</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="18" t="s">
@@ -3413,7 +3303,7 @@
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
@@ -3445,7 +3335,7 @@
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
@@ -3479,7 +3369,7 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" ht="29.4" customHeight="1">
       <c r="A12" s="12" t="s">
         <v>20</v>
       </c>
@@ -3513,7 +3403,7 @@
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>23</v>
       </c>
@@ -3543,7 +3433,7 @@
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="12" t="s">
         <v>24</v>
       </c>
@@ -3573,7 +3463,7 @@
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>25</v>
       </c>
@@ -3603,7 +3493,7 @@
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="22" t="s">
         <v>26</v>
       </c>
@@ -3633,7 +3523,7 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="23" t="s">
         <v>27</v>
       </c>
@@ -3663,7 +3553,7 @@
       <c r="Y17" s="24"/>
       <c r="Z17" s="24"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:26">
       <c r="A18" s="25" t="s">
         <v>28</v>
       </c>
@@ -3693,7 +3583,7 @@
       <c r="Y18" s="24"/>
       <c r="Z18" s="24"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="26" t="s">
         <v>29</v>
       </c>
@@ -3725,7 +3615,7 @@
       <c r="Y19" s="24"/>
       <c r="Z19" s="24"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="29" t="s">
         <v>31</v>
       </c>
@@ -3755,7 +3645,7 @@
       <c r="Y20" s="24"/>
       <c r="Z20" s="24"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="29" t="s">
         <v>32</v>
       </c>
@@ -3785,7 +3675,7 @@
       <c r="Y21" s="24"/>
       <c r="Z21" s="24"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="26" t="s">
         <v>33</v>
       </c>
@@ -3817,7 +3707,7 @@
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/majority-element/","majority element")</f>
         <v>majority element</v>
@@ -3850,7 +3740,7 @@
       <c r="Y23" s="24"/>
       <c r="Z23" s="24"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/majority-element-ii/","majority element 2")</f>
         <v>majority element 2</v>
@@ -3883,7 +3773,7 @@
       <c r="Y24" s="24"/>
       <c r="Z24" s="24"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="29" t="str">
         <f>HYPERLINK("geeksforgeeks.org/given-an-array-of-of-size-n-finds-all-the-elements-that-appear-more-than-nk-times/","majority element general")</f>
         <v>majority element general</v>
@@ -3916,7 +3806,7 @@
       <c r="Y25" s="24"/>
       <c r="Z25" s="24"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="30" t="s">
         <v>38</v>
       </c>
@@ -3946,7 +3836,7 @@
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:26">
       <c r="A27" s="25" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/max-chunks-to-make-sorted/","Max chunks to make sorted")</f>
         <v>Max chunks to make sorted</v>
@@ -3979,7 +3869,7 @@
       <c r="Y27" s="24"/>
       <c r="Z27" s="24"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="31" t="s">
         <v>40</v>
       </c>
@@ -4011,7 +3901,7 @@
       <c r="Y28" s="24"/>
       <c r="Z28" s="24"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" s="31" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/maximum-product-of-three-numbers/","max product of 3 numbers")</f>
         <v>max product of 3 numbers</v>
@@ -4044,7 +3934,7 @@
       <c r="Y29" s="24"/>
       <c r="Z29" s="24"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:26" ht="14.4">
       <c r="A30" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/largest-number-at-least-twice-of-others/","largest number atleast twice of others")</f>
         <v>largest number atleast twice of others</v>
@@ -4077,7 +3967,7 @@
       <c r="Y30" s="24"/>
       <c r="Z30" s="24"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:26" ht="14.4">
       <c r="A31" s="26" t="s">
         <v>44</v>
       </c>
@@ -4109,7 +3999,7 @@
       <c r="Y31" s="24"/>
       <c r="Z31" s="24"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:26" ht="14.4">
       <c r="A32" s="31" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/number-of-subarrays-with-bounded-maximum/","number of subarrays with bounded maximum")</f>
         <v>number of subarrays with bounded maximum</v>
@@ -4142,7 +4032,7 @@
       <c r="Y32" s="24"/>
       <c r="Z32" s="24"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:26" ht="14.4">
       <c r="A33" s="31" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/maximum-subarray/","maximum subarray")</f>
         <v>maximum subarray</v>
@@ -4175,7 +4065,7 @@
       <c r="Y33" s="24"/>
       <c r="Z33" s="24"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:26" ht="14.4">
       <c r="A34" s="30" t="s">
         <v>48</v>
       </c>
@@ -4205,7 +4095,7 @@
       <c r="Y34" s="24"/>
       <c r="Z34" s="24"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:26" ht="14.4">
       <c r="A35" s="32" t="str">
         <f>HYPERLINK("https://www.codechef.com/JAN18/problems/KCON","K-CON")</f>
         <v>K-CON</v>
@@ -4238,7 +4128,7 @@
       <c r="Y35" s="24"/>
       <c r="Z35" s="24"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:26" ht="14.4">
       <c r="A36" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/best-meeting-point/","best meeting points")</f>
         <v>best meeting points</v>
@@ -4271,7 +4161,7 @@
       <c r="Y36" s="24"/>
       <c r="Z36" s="24"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:26" ht="14.4">
       <c r="A37" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/segregate-0s-and-1s-in-an-array-by-traversing-array-once/","Segregate 0 and 1")</f>
         <v>Segregate 0 and 1</v>
@@ -4304,7 +4194,7 @@
       <c r="Y37" s="24"/>
       <c r="Z37" s="24"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:26" ht="14.4">
       <c r="A38" s="33" t="s">
         <v>52</v>
       </c>
@@ -4336,7 +4226,7 @@
       <c r="Y38" s="36"/>
       <c r="Z38" s="36"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:26" ht="14.4">
       <c r="A39" s="37" t="s">
         <v>54</v>
       </c>
@@ -4368,7 +4258,7 @@
       <c r="Y39" s="36"/>
       <c r="Z39" s="36"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:26" ht="14.4">
       <c r="A40" s="37" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/partition-labels/","partition labels")</f>
         <v>partition labels</v>
@@ -4401,7 +4291,7 @@
       <c r="Y40" s="36"/>
       <c r="Z40" s="36"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:26" ht="14.4">
       <c r="A41" s="38" t="s">
         <v>57</v>
       </c>
@@ -4431,7 +4321,7 @@
       <c r="Y41" s="36"/>
       <c r="Z41" s="36"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:26" ht="14.4">
       <c r="A42" s="39" t="s">
         <v>58</v>
       </c>
@@ -4461,7 +4351,7 @@
       <c r="Y42" s="24"/>
       <c r="Z42" s="24"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:26" ht="14.4">
       <c r="A43" s="40" t="s">
         <v>59</v>
       </c>
@@ -4493,7 +4383,7 @@
       <c r="Y43" s="24"/>
       <c r="Z43" s="24"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:26" ht="14.4">
       <c r="A44" s="29" t="s">
         <v>61</v>
       </c>
@@ -4525,7 +4415,7 @@
       <c r="Y44" s="24"/>
       <c r="Z44" s="24"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:26" ht="14.4">
       <c r="A45" s="29" t="s">
         <v>62</v>
       </c>
@@ -4557,7 +4447,7 @@
       <c r="Y45" s="24"/>
       <c r="Z45" s="24"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:26" ht="14.4">
       <c r="A46" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/consecutive-numbers-sum/","consecutive number sum")</f>
         <v>consecutive number sum</v>
@@ -4590,7 +4480,7 @@
       <c r="Y46" s="24"/>
       <c r="Z46" s="24"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:26" ht="14.4">
       <c r="A47" s="43" t="s">
         <v>64</v>
       </c>
@@ -4620,7 +4510,7 @@
       <c r="Y47" s="24"/>
       <c r="Z47" s="24"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:26" ht="14.4">
       <c r="A48" s="26" t="s">
         <v>65</v>
       </c>
@@ -4652,7 +4542,7 @@
       <c r="Y48" s="24"/>
       <c r="Z48" s="24"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:26" ht="14.4">
       <c r="A49" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/sieve-of-eratosthenes/","Sieve of Eratosthenes")</f>
         <v>Sieve of Eratosthenes</v>
@@ -4685,7 +4575,7 @@
       <c r="Y49" s="24"/>
       <c r="Z49" s="24"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:26" ht="14.4">
       <c r="A50" s="26" t="str">
         <f>HYPERLINK("https://www.spoj.com/problems/PRIME1/cstart=10","Segmented sieve")</f>
         <v>Segmented sieve</v>
@@ -4718,7 +4608,7 @@
       <c r="Y50" s="24"/>
       <c r="Z50" s="24"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:26" ht="14.4">
       <c r="A51" s="29" t="s">
         <v>69</v>
       </c>
@@ -4750,7 +4640,7 @@
       <c r="Y51" s="24"/>
       <c r="Z51" s="24"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:26" ht="14.4">
       <c r="A52" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/find-the-number-of-jumps-to-reach-x-in-the-number-line-from-zero/","MIn Jump required with +i or -i allowed")</f>
         <v>MIn Jump required with +i or -i allowed</v>
@@ -4783,7 +4673,7 @@
       <c r="Y52" s="24"/>
       <c r="Z52" s="24"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:26" ht="14.4">
       <c r="A53" s="26" t="s">
         <v>71</v>
       </c>
@@ -4815,7 +4705,7 @@
       <c r="Y53" s="24"/>
       <c r="Z53" s="24"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:26" ht="14.4">
       <c r="A54" s="26"/>
       <c r="B54" s="27"/>
       <c r="C54" s="24"/>
@@ -4843,7 +4733,7 @@
       <c r="Y54" s="24"/>
       <c r="Z54" s="24"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:26" ht="14.4">
       <c r="A55" s="30" t="s">
         <v>73</v>
       </c>
@@ -4873,7 +4763,7 @@
       <c r="Y55" s="24"/>
       <c r="Z55" s="24"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:26" ht="14.4">
       <c r="A56" s="32" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/minimum-domino-rotations-for-equal-row/","minimum domino rotation for equal row")</f>
         <v>minimum domino rotation for equal row</v>
@@ -4906,7 +4796,7 @@
       <c r="Y56" s="24"/>
       <c r="Z56" s="24"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:26" ht="14.4">
       <c r="A57" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/multiply-strings/","multiply strings")</f>
         <v>multiply strings</v>
@@ -4939,7 +4829,7 @@
       <c r="Y57" s="24"/>
       <c r="Z57" s="24"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:26" ht="14.4">
       <c r="A58" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/given-an-array-a-and-a-number-x-check-for-pair-in-a-with-sum-as-x/","Two Sum")</f>
         <v>Two Sum</v>
@@ -4972,7 +4862,7 @@
       <c r="Y58" s="24"/>
       <c r="Z58" s="24"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:26" ht="14.4">
       <c r="A59" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/find-a-pair-with-the-given-difference/","Two Difference")</f>
         <v>Two Difference</v>
@@ -5005,7 +4895,7 @@
       <c r="Y59" s="24"/>
       <c r="Z59" s="24"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:26" ht="14.4">
       <c r="A60" s="26" t="s">
         <v>78</v>
       </c>
@@ -5037,7 +4927,7 @@
       <c r="Y60" s="24"/>
       <c r="Z60" s="24"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:26" ht="14.4">
       <c r="A61" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/smallest-range-covering-elements-from-k-lists/","smallest range from k lists")</f>
         <v>smallest range from k lists</v>
@@ -5070,7 +4960,7 @@
       <c r="Y61" s="24"/>
       <c r="Z61" s="24"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:26" ht="14.4">
       <c r="A62" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/maximum-product-subarray/","maximum product subarray")</f>
         <v>maximum product subarray</v>
@@ -5103,7 +4993,7 @@
       <c r="Y62" s="24"/>
       <c r="Z62" s="24"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:26" ht="14.4">
       <c r="A63" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/minimum-number-platforms-required-railwaybus-station/","Min No. of Platform")</f>
         <v>Min No. of Platform</v>
@@ -5136,7 +5026,7 @@
       <c r="Y63" s="24"/>
       <c r="Z63" s="24"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:26" ht="14.4">
       <c r="A64" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/reverse-vowels-of-a-string/","Reverse vowels of a string")</f>
         <v>Reverse vowels of a string</v>
@@ -5169,7 +5059,7 @@
       <c r="Y64" s="24"/>
       <c r="Z64" s="24"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:26" ht="14.4">
       <c r="A65" s="29"/>
       <c r="B65" s="24"/>
       <c r="C65" s="24"/>
@@ -5197,7 +5087,7 @@
       <c r="Y65" s="24"/>
       <c r="Z65" s="24"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:26" ht="14.4">
       <c r="A66" s="30" t="s">
         <v>84</v>
       </c>
@@ -5227,7 +5117,7 @@
       <c r="Y66" s="24"/>
       <c r="Z66" s="24"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:26" ht="14.4">
       <c r="A67" s="46" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/first-missing-positive/","First missing positive")</f>
         <v>First missing positive</v>
@@ -5260,7 +5150,7 @@
       <c r="Y67" s="24"/>
       <c r="Z67" s="24"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:26" ht="14.4">
       <c r="A68" s="46" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/rotate-image/","rotate image")</f>
         <v>rotate image</v>
@@ -5293,7 +5183,7 @@
       <c r="Y68" s="24"/>
       <c r="Z68" s="24"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:26" ht="14.4">
       <c r="A69" s="47" t="s">
         <v>87</v>
       </c>
@@ -5325,7 +5215,7 @@
       <c r="Y69" s="24"/>
       <c r="Z69" s="24"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:26" ht="14.4">
       <c r="A70" s="46" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/push-dominoes/","push dominoes")</f>
         <v>push dominoes</v>
@@ -5358,7 +5248,7 @@
       <c r="Y70" s="24"/>
       <c r="Z70" s="24"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:26" ht="14.4">
       <c r="A71" s="31" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/valid-palindrome-ii/","valid pallindrome 2")</f>
         <v>valid pallindrome 2</v>
@@ -5391,7 +5281,7 @@
       <c r="Y71" s="24"/>
       <c r="Z71" s="24"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:26" ht="14.4">
       <c r="A72" s="46" t="s">
         <v>91</v>
       </c>
@@ -5423,7 +5313,7 @@
       <c r="Y72" s="24"/>
       <c r="Z72" s="24"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:26" ht="14.4">
       <c r="A73" s="49" t="s">
         <v>93</v>
       </c>
@@ -5455,7 +5345,7 @@
       <c r="Y73" s="24"/>
       <c r="Z73" s="24"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:26" ht="14.4">
       <c r="A74" s="23" t="s">
         <v>95</v>
       </c>
@@ -5485,7 +5375,7 @@
       <c r="Y74" s="24"/>
       <c r="Z74" s="24"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:26" ht="14.4">
       <c r="A75" s="40" t="s">
         <v>96</v>
       </c>
@@ -5517,7 +5407,7 @@
       <c r="Y75" s="24"/>
       <c r="Z75" s="24"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:26" ht="13.8">
       <c r="A76" s="50" t="str">
         <f>HYPERLINK("https://www.codechef.com/SNCKPE19/problems/BUDDYNIM","Buddy nim")</f>
         <v>Buddy nim</v>
@@ -5550,7 +5440,7 @@
       <c r="Y76" s="24"/>
       <c r="Z76" s="24"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:26" ht="14.4">
       <c r="A77" s="29" t="s">
         <v>99</v>
       </c>
@@ -5582,7 +5472,7 @@
       <c r="Y77" s="24"/>
       <c r="Z77" s="24"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:26" ht="14.4">
       <c r="A78" s="29" t="s">
         <v>101</v>
       </c>
@@ -5614,7 +5504,7 @@
       <c r="Y78" s="24"/>
       <c r="Z78" s="24"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:26" ht="14.4">
       <c r="A79" s="29" t="s">
         <v>103</v>
       </c>
@@ -5646,7 +5536,7 @@
       <c r="Y79" s="24"/>
       <c r="Z79" s="24"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:26" ht="14.4">
       <c r="A80" s="31" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/maximum-sum-of-two-non-overlapping-subarrays/","max sum of two non overlapping subarrays")</f>
         <v>max sum of two non overlapping subarrays</v>
@@ -5679,7 +5569,7 @@
       <c r="Y80" s="24"/>
       <c r="Z80" s="24"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:26" ht="14.4">
       <c r="A81" s="52" t="s">
         <v>106</v>
       </c>
@@ -5711,7 +5601,7 @@
       <c r="Y81" s="24"/>
       <c r="Z81" s="24"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:26" ht="14.4">
       <c r="A82" s="53" t="s">
         <v>108</v>
       </c>
@@ -5741,7 +5631,7 @@
       <c r="Y82" s="24"/>
       <c r="Z82" s="24"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:26" ht="14.4">
       <c r="A83" s="23" t="s">
         <v>109</v>
       </c>
@@ -5771,7 +5661,7 @@
       <c r="Y83" s="24"/>
       <c r="Z83" s="24"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:26" ht="14.4">
       <c r="A84" s="32" t="s">
         <v>110</v>
       </c>
@@ -5803,7 +5693,7 @@
       <c r="Y84" s="24"/>
       <c r="Z84" s="24"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:26" ht="14.4">
       <c r="A85" s="29" t="s">
         <v>112</v>
       </c>
@@ -5835,7 +5725,7 @@
       <c r="Y85" s="24"/>
       <c r="Z85" s="24"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:26" ht="14.4">
       <c r="A86" s="26" t="str">
         <f>HYPERLINK("https://www.codechef.com/COOK103B/problems/MAXREMOV","Max range query")</f>
         <v>Max range query</v>
@@ -5866,7 +5756,7 @@
       <c r="Y86" s="24"/>
       <c r="Z86" s="24"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:26" ht="14.4">
       <c r="A87" s="26" t="s">
         <v>114</v>
       </c>
@@ -5898,7 +5788,7 @@
       <c r="Y87" s="24"/>
       <c r="Z87" s="24"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:26" ht="14.4">
       <c r="A88" s="26" t="s">
         <v>116</v>
       </c>
@@ -5930,7 +5820,7 @@
       <c r="Y88" s="24"/>
       <c r="Z88" s="24"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:26" ht="13.2">
       <c r="A89" s="24"/>
       <c r="B89" s="24"/>
       <c r="C89" s="24"/>
@@ -5958,7 +5848,7 @@
       <c r="Y89" s="24"/>
       <c r="Z89" s="24"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:26" ht="18">
       <c r="A90" s="54" t="s">
         <v>5</v>
       </c>
@@ -5988,7 +5878,7 @@
       <c r="Y90" s="4"/>
       <c r="Z90" s="4"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:26" ht="14.4">
       <c r="A91" s="23" t="s">
         <v>118</v>
       </c>
@@ -6018,7 +5908,7 @@
       <c r="Y91" s="44"/>
       <c r="Z91" s="44"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:26" ht="15.6">
       <c r="A92" s="55" t="s">
         <v>119</v>
       </c>
@@ -6048,7 +5938,7 @@
       <c r="Y92" s="44"/>
       <c r="Z92" s="44"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:26" ht="15.6">
       <c r="A93" s="56" t="s">
         <v>120</v>
       </c>
@@ -6078,7 +5968,7 @@
       <c r="Y93" s="44"/>
       <c r="Z93" s="44"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:26" ht="13.2">
       <c r="A94" s="57" t="s">
         <v>121</v>
       </c>
@@ -6108,7 +5998,7 @@
       <c r="Y94" s="44"/>
       <c r="Z94" s="44"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:26" ht="13.2">
       <c r="A95" s="58" t="s">
         <v>122</v>
       </c>
@@ -6138,7 +6028,7 @@
       <c r="Y95" s="44"/>
       <c r="Z95" s="44"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:26" ht="13.2">
       <c r="A96" s="58" t="s">
         <v>123</v>
       </c>
@@ -6168,7 +6058,7 @@
       <c r="Y96" s="44"/>
       <c r="Z96" s="44"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:26" ht="14.4">
       <c r="A97" s="59" t="s">
         <v>124</v>
       </c>
@@ -6198,7 +6088,7 @@
       <c r="Y97" s="44"/>
       <c r="Z97" s="44"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:26" ht="15.6">
       <c r="A98" s="56" t="s">
         <v>125</v>
       </c>
@@ -6228,7 +6118,7 @@
       <c r="Y98" s="44"/>
       <c r="Z98" s="44"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:26" ht="13.2">
       <c r="A99" s="57" t="s">
         <v>126</v>
       </c>
@@ -6258,7 +6148,7 @@
       <c r="Y99" s="44"/>
       <c r="Z99" s="44"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:26" ht="13.2">
       <c r="A100" s="58" t="s">
         <v>127</v>
       </c>
@@ -6288,7 +6178,7 @@
       <c r="Y100" s="44"/>
       <c r="Z100" s="44"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:26" ht="13.2">
       <c r="A101" s="58" t="s">
         <v>128</v>
       </c>
@@ -6318,7 +6208,7 @@
       <c r="Y101" s="44"/>
       <c r="Z101" s="44"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:26" ht="13.2">
       <c r="A102" s="24"/>
       <c r="B102" s="24"/>
       <c r="C102" s="24"/>
@@ -6346,7 +6236,7 @@
       <c r="Y102" s="24"/>
       <c r="Z102" s="24"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:26" ht="18">
       <c r="A103" s="54" t="s">
         <v>129</v>
       </c>
@@ -6376,7 +6266,7 @@
       <c r="Y103" s="4"/>
       <c r="Z103" s="4"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:26" ht="14.4">
       <c r="A104" s="23" t="s">
         <v>130</v>
       </c>
@@ -6406,7 +6296,7 @@
       <c r="Y104" s="24"/>
       <c r="Z104" s="24"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:26" ht="13.2">
       <c r="A105" s="48" t="s">
         <v>131</v>
       </c>
@@ -6436,7 +6326,7 @@
       <c r="Y105" s="24"/>
       <c r="Z105" s="24"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:26" ht="14.4">
       <c r="A106" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/median-of-two-sorted-arrays/","median of two sorted array")</f>
         <v>median of two sorted array</v>
@@ -6469,7 +6359,7 @@
       <c r="Y106" s="24"/>
       <c r="Z106" s="24"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:26" ht="14.4">
       <c r="A107" s="46" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/capacity-to-ship-packages-within-d-days/","capacity to ship within D days")</f>
         <v>capacity to ship within D days</v>
@@ -6502,7 +6392,7 @@
       <c r="Y107" s="24"/>
       <c r="Z107" s="24"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:26" ht="14.4">
       <c r="A108" s="31" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/koko-eating-bananas/","koko eating bananas")</f>
         <v>koko eating bananas</v>
@@ -6535,7 +6425,7 @@
       <c r="Y108" s="24"/>
       <c r="Z108" s="24"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:26" ht="14.4">
       <c r="A109" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/find-the-smallest-divisor-given-a-threshold/","smallest divisor given a threshold")</f>
         <v>smallest divisor given a threshold</v>
@@ -6568,7 +6458,7 @@
       <c r="Y109" s="24"/>
       <c r="Z109" s="24"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:26" ht="14.4">
       <c r="A110" s="29" t="s">
         <v>136</v>
       </c>
@@ -6600,7 +6490,7 @@
       <c r="Y110" s="24"/>
       <c r="Z110" s="24"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:26" ht="14.4">
       <c r="A111" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/split-array-largest-sum/","split array largest sum")</f>
         <v>split array largest sum</v>
@@ -6633,7 +6523,7 @@
       <c r="Y111" s="24"/>
       <c r="Z111" s="24"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:26" ht="14.4">
       <c r="A112" s="30" t="s">
         <v>139</v>
       </c>
@@ -6663,7 +6553,7 @@
       <c r="Y112" s="24"/>
       <c r="Z112" s="24"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:26" ht="14.4">
       <c r="A113" s="40" t="s">
         <v>140</v>
       </c>
@@ -6695,7 +6585,7 @@
       <c r="Y113" s="24"/>
       <c r="Z113" s="24"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:26" ht="14.4">
       <c r="A114" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/k-th-smallest-prime-fraction/","Kth smallest prime fraction")</f>
         <v>Kth smallest prime fraction</v>
@@ -6728,7 +6618,7 @@
       <c r="Y114" s="24"/>
       <c r="Z114" s="24"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:26" ht="14.4">
       <c r="A115" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/search-in-rotated-sorted-array/","search in rotated sorted array")</f>
         <v>search in rotated sorted array</v>
@@ -6761,7 +6651,7 @@
       <c r="Y115" s="24"/>
       <c r="Z115" s="24"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:26" ht="14.4">
       <c r="A116" s="29" t="s">
         <v>143</v>
       </c>
@@ -6793,7 +6683,7 @@
       <c r="Y116" s="24"/>
       <c r="Z116" s="24"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:26" ht="14.4">
       <c r="A117" s="29" t="s">
         <v>145</v>
       </c>
@@ -6825,7 +6715,7 @@
       <c r="Y117" s="24"/>
       <c r="Z117" s="24"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:26" ht="14.4">
       <c r="A118" s="29" t="s">
         <v>147</v>
       </c>
@@ -6857,7 +6747,7 @@
       <c r="Y118" s="24"/>
       <c r="Z118" s="24"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:26" ht="13.8">
       <c r="A119" s="60" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/counting-sort/","counting sort")</f>
         <v>counting sort</v>
@@ -6890,7 +6780,7 @@
       <c r="Y119" s="24"/>
       <c r="Z119" s="24"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:26" ht="13.8">
       <c r="A120" s="60" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/merge-sort/","merge sort")</f>
         <v>merge sort</v>
@@ -6923,7 +6813,7 @@
       <c r="Y120" s="24"/>
       <c r="Z120" s="24"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:26" ht="14.4">
       <c r="A121" s="62" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/counting-inversions/","count inversions")</f>
         <v>count inversions</v>
@@ -6956,7 +6846,7 @@
       <c r="Y121" s="24"/>
       <c r="Z121" s="24"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:26" ht="18">
       <c r="A122" s="63" t="s">
         <v>152</v>
       </c>
@@ -6986,7 +6876,7 @@
       <c r="Y122" s="4"/>
       <c r="Z122" s="4"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:26" ht="14.4">
       <c r="A123" s="23" t="s">
         <v>153</v>
       </c>
@@ -7016,7 +6906,7 @@
       <c r="Y123" s="24"/>
       <c r="Z123" s="24"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:26" ht="14.4">
       <c r="A124" s="40" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/reverse-linked-list/","reverse LinkedList")</f>
         <v>reverse LinkedList</v>
@@ -7049,7 +6939,7 @@
       <c r="Y124" s="24"/>
       <c r="Z124" s="24"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:26" ht="14.4">
       <c r="A125" s="64" t="s">
         <v>155</v>
       </c>
@@ -7079,7 +6969,7 @@
       <c r="Y125" s="24"/>
       <c r="Z125" s="24"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:26" ht="14.4">
       <c r="A126" s="40" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/write-a-c-function-to-print-the-middle-of-the-linked-list/","Find the middle element")</f>
         <v>Find the middle element</v>
@@ -7112,7 +7002,7 @@
       <c r="Y126" s="24"/>
       <c r="Z126" s="24"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:26" ht="14.4">
       <c r="A127" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/detect-loop-in-a-linked-list/","Floyd cycle")</f>
         <v>Floyd cycle</v>
@@ -7145,7 +7035,7 @@
       <c r="Y127" s="24"/>
       <c r="Z127" s="24"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:26" ht="14.4">
       <c r="A128" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/a-linked-list-with-next-and-arbit-pointer/","Clone a linkedlist")</f>
         <v>Clone a linkedlist</v>
@@ -7178,7 +7068,7 @@
       <c r="Y128" s="24"/>
       <c r="Z128" s="24"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:26" ht="14.4">
       <c r="A129" s="29" t="s">
         <v>159</v>
       </c>
@@ -7210,7 +7100,7 @@
       <c r="Y129" s="24"/>
       <c r="Z129" s="24"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:26" ht="14.4">
       <c r="A130" s="59" t="s">
         <v>161</v>
       </c>
@@ -7240,7 +7130,7 @@
       <c r="Y130" s="24"/>
       <c r="Z130" s="24"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:26" ht="13.8">
       <c r="A131" s="25" t="s">
         <v>162</v>
       </c>
@@ -7272,7 +7162,7 @@
       <c r="Y131" s="24"/>
       <c r="Z131" s="24"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:26" ht="14.4">
       <c r="A132" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/lru-cache/","LRU Cache")</f>
         <v>LRU Cache</v>
@@ -7305,7 +7195,7 @@
       <c r="Y132" s="24"/>
       <c r="Z132" s="24"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:26" ht="14.4">
       <c r="A133" s="65" t="s">
         <v>165</v>
       </c>
@@ -7335,7 +7225,7 @@
       <c r="Y133" s="44"/>
       <c r="Z133" s="44"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:26" ht="14.4">
       <c r="A134" s="65" t="s">
         <v>166</v>
       </c>
@@ -7365,7 +7255,7 @@
       <c r="Y134" s="44"/>
       <c r="Z134" s="44"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:26" ht="14.4">
       <c r="A135" s="65" t="s">
         <v>167</v>
       </c>
@@ -7395,7 +7285,7 @@
       <c r="Y135" s="44"/>
       <c r="Z135" s="44"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:26" ht="14.4">
       <c r="A136" s="65" t="s">
         <v>168</v>
       </c>
@@ -7425,7 +7315,7 @@
       <c r="Y136" s="44"/>
       <c r="Z136" s="44"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:26" ht="14.4">
       <c r="A137" s="59" t="s">
         <v>169</v>
       </c>
@@ -7455,7 +7345,7 @@
       <c r="Y137" s="44"/>
       <c r="Z137" s="44"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:26" ht="14.4">
       <c r="A138" s="66" t="s">
         <v>170</v>
       </c>
@@ -7485,7 +7375,7 @@
       <c r="Y138" s="44"/>
       <c r="Z138" s="44"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:26" ht="14.4">
       <c r="A139" s="65" t="s">
         <v>171</v>
       </c>
@@ -7515,7 +7405,7 @@
       <c r="Y139" s="44"/>
       <c r="Z139" s="44"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:26" ht="14.4">
       <c r="A140" s="65" t="s">
         <v>172</v>
       </c>
@@ -7545,7 +7435,7 @@
       <c r="Y140" s="44"/>
       <c r="Z140" s="44"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:26" ht="14.4">
       <c r="A141" s="65" t="s">
         <v>173</v>
       </c>
@@ -7575,7 +7465,7 @@
       <c r="Y141" s="44"/>
       <c r="Z141" s="44"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:26" ht="14.4">
       <c r="A142" s="65" t="s">
         <v>174</v>
       </c>
@@ -7605,7 +7495,7 @@
       <c r="Y142" s="24"/>
       <c r="Z142" s="24"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:26" ht="14.4">
       <c r="A143" s="66" t="s">
         <v>175</v>
       </c>
@@ -7635,7 +7525,7 @@
       <c r="Y143" s="44"/>
       <c r="Z143" s="44"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:26" ht="18">
       <c r="A144" s="22" t="s">
         <v>176</v>
       </c>
@@ -7665,7 +7555,7 @@
       <c r="Y144" s="4"/>
       <c r="Z144" s="4"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:26" ht="14.4">
       <c r="A145" s="23" t="s">
         <v>177</v>
       </c>
@@ -7695,7 +7585,7 @@
       <c r="Y145" s="24"/>
       <c r="Z145" s="24"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:26" ht="13.8">
       <c r="A146" s="25" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/next-greater-element/","Next Greater Element on right")</f>
         <v>Next Greater Element on right</v>
@@ -7728,7 +7618,7 @@
       <c r="Y146" s="24"/>
       <c r="Z146" s="24"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:26" ht="13.8">
       <c r="A147" s="50" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/next-greater-element-ii/","Next Greater Element 2")</f>
         <v>Next Greater Element 2</v>
@@ -7761,7 +7651,7 @@
       <c r="Y147" s="24"/>
       <c r="Z147" s="24"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:26" ht="13.8">
       <c r="A148" s="50" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/daily-temperatures/","Daily Temperatures")</f>
         <v>Daily Temperatures</v>
@@ -7794,7 +7684,7 @@
       <c r="Y148" s="24"/>
       <c r="Z148" s="24"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:26" ht="13.8">
       <c r="A149" s="50" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/the-stock-span-problem/","Stock Span Problem")</f>
         <v>Stock Span Problem</v>
@@ -7827,7 +7717,7 @@
       <c r="Y149" s="24"/>
       <c r="Z149" s="24"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:26" ht="13.8">
       <c r="A150" s="50" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/find-maximum-difference-between-nearest-left-and-right-smaller-elements/","maximum difference between left and right smaller")</f>
         <v>maximum difference between left and right smaller</v>
@@ -7860,7 +7750,7 @@
       <c r="Y150" s="24"/>
       <c r="Z150" s="24"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:26" ht="13.8">
       <c r="A151" s="50" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/largest-rectangle-in-histogram/","Largest Rectangular Area Histogram")</f>
         <v>Largest Rectangular Area Histogram</v>
@@ -7893,7 +7783,7 @@
       <c r="Y151" s="24"/>
       <c r="Z151" s="24"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:26" ht="13.8">
       <c r="A152" s="50" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/maximal-rectangle/","maximu size binary matrix containing 1")</f>
         <v>maximu size binary matrix containing 1</v>
@@ -7926,7 +7816,7 @@
       <c r="Y152" s="24"/>
       <c r="Z152" s="24"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:26" ht="13.8">
       <c r="A153" s="50" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/asteroid-collision/","Asteroid Collision")</f>
         <v>Asteroid Collision</v>
@@ -7959,7 +7849,7 @@
       <c r="Y153" s="24"/>
       <c r="Z153" s="24"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:26" ht="14.4">
       <c r="A154" s="30" t="s">
         <v>186</v>
       </c>
@@ -7989,7 +7879,7 @@
       <c r="Y154" s="24"/>
       <c r="Z154" s="24"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:26" ht="13.8">
       <c r="A155" s="25" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/valid-parentheses/","Valid Parentheses")</f>
         <v>Valid Parentheses</v>
@@ -8022,7 +7912,7 @@
       <c r="Y155" s="24"/>
       <c r="Z155" s="24"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:26" ht="13.8">
       <c r="A156" s="50" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/length-of-the-longest-valid-substring/","Length of longest valid substring")</f>
         <v>Length of longest valid substring</v>
@@ -8055,7 +7945,7 @@
       <c r="Y156" s="24"/>
       <c r="Z156" s="24"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:26" ht="13.8">
       <c r="A157" s="50" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/find-expression-duplicate-parenthesis-not/","Count of duplicate Parentheses")</f>
         <v>Count of duplicate Parentheses</v>
@@ -8088,7 +7978,7 @@
       <c r="Y157" s="24"/>
       <c r="Z157" s="24"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:26" ht="13.8">
       <c r="A158" s="50" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/minimum-number-of-bracket-reversals-needed-to-make-an-expression-balanced/","Minimum Number of bracket reversal")</f>
         <v>Minimum Number of bracket reversal</v>
@@ -8121,7 +8011,7 @@
       <c r="Y158" s="24"/>
       <c r="Z158" s="24"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:26" ht="13.8">
       <c r="A159" s="50" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/minimum-add-to-make-parentheses-valid/","Minimum Add To make Parentheses Valid")</f>
         <v>Minimum Add To make Parentheses Valid</v>
@@ -8154,7 +8044,7 @@
       <c r="Y159" s="24"/>
       <c r="Z159" s="24"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:26" ht="13.8">
       <c r="A160" s="50" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/remove-k-digits/","Remove K digits From number")</f>
         <v>Remove K digits From number</v>
@@ -8187,7 +8077,7 @@
       <c r="Y160" s="24"/>
       <c r="Z160" s="24"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:26" ht="13.8">
       <c r="A161" s="42" t="s">
         <v>193</v>
       </c>
@@ -8217,7 +8107,7 @@
       <c r="Y161" s="24"/>
       <c r="Z161" s="24"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:26" ht="13.8">
       <c r="A162" s="50" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/first-negative-integer-every-window-size-k/","First negative Integer in k sized window")</f>
         <v>First negative Integer in k sized window</v>
@@ -8250,7 +8140,7 @@
       <c r="Y162" s="24"/>
       <c r="Z162" s="24"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:26" ht="14.4">
       <c r="A163" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/maximum-sum-of-smallest-and-second-smallest-in-an-array/","Maximum sum of smallest and second smallest")</f>
         <v>Maximum sum of smallest and second smallest</v>
@@ -8283,7 +8173,7 @@
       <c r="Y163" s="24"/>
       <c r="Z163" s="24"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:26" ht="14.4">
       <c r="A164" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/reversing-first-k-elements-queue/","K reverse in a queue")</f>
         <v>K reverse in a queue</v>
@@ -8316,7 +8206,7 @@
       <c r="Y164" s="24"/>
       <c r="Z164" s="24"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:26" ht="14.4">
       <c r="A165" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/efficiently-implement-k-stacks-single-array/","K stacks in a single array")</f>
         <v>K stacks in a single array</v>
@@ -8349,7 +8239,7 @@
       <c r="Y165" s="24"/>
       <c r="Z165" s="24"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:26" ht="14.4">
       <c r="A166" s="29"/>
       <c r="B166" s="24"/>
       <c r="C166" s="24"/>
@@ -8377,7 +8267,7 @@
       <c r="Y166" s="24"/>
       <c r="Z166" s="24"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:26" ht="14.4">
       <c r="A167" s="30" t="s">
         <v>198</v>
       </c>
@@ -8407,7 +8297,7 @@
       <c r="Y167" s="24"/>
       <c r="Z167" s="24"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:26" ht="14.4">
       <c r="A168" s="40" t="s">
         <v>199</v>
       </c>
@@ -8439,7 +8329,7 @@
       <c r="Y168" s="24"/>
       <c r="Z168" s="24"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:26" ht="14.4">
       <c r="A169" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/gas-station/","Gas Station")</f>
         <v>Gas Station</v>
@@ -8472,7 +8362,7 @@
       <c r="Y169" s="24"/>
       <c r="Z169" s="24"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:26" ht="13.8">
       <c r="A170" s="50" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/interesting-method-generate-binary-numbers-1-n/","Print Binary Number")</f>
         <v>Print Binary Number</v>
@@ -8505,7 +8395,7 @@
       <c r="Y170" s="24"/>
       <c r="Z170" s="24"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:26" ht="14.4">
       <c r="A171" s="29" t="s">
         <v>203</v>
       </c>
@@ -8537,7 +8427,7 @@
       <c r="Y171" s="24"/>
       <c r="Z171" s="24"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:26" ht="13.8">
       <c r="A172" s="50" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/backspace-string-compare/","Backspace String Compare")</f>
         <v>Backspace String Compare</v>
@@ -8570,7 +8460,7 @@
       <c r="Y172" s="24"/>
       <c r="Z172" s="24"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:26" ht="13.8">
       <c r="A173" s="50" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/car-fleet/","Car fleet")</f>
         <v>Car fleet</v>
@@ -8603,7 +8493,7 @@
       <c r="Y173" s="24"/>
       <c r="Z173" s="24"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:26" ht="14.4">
       <c r="A174" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/validate-stack-sequences/","Validate Stack")</f>
         <v>Validate Stack</v>
@@ -8636,7 +8526,7 @@
       <c r="Y174" s="24"/>
       <c r="Z174" s="24"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:26" ht="14.4">
       <c r="A175" s="30" t="s">
         <v>208</v>
       </c>
@@ -8666,7 +8556,7 @@
       <c r="Y175" s="24"/>
       <c r="Z175" s="24"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:26" ht="14.4">
       <c r="A176" s="46" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/maximum-frequency-stack/","max frequency stack")</f>
         <v>max frequency stack</v>
@@ -8699,7 +8589,7 @@
       <c r="Y176" s="24"/>
       <c r="Z176" s="24"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:26" ht="14.4">
       <c r="A177" s="46" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/min-stack/","Min Stack")</f>
         <v>Min Stack</v>
@@ -8732,7 +8622,7 @@
       <c r="Y177" s="24"/>
       <c r="Z177" s="24"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:26" ht="13.2">
       <c r="A178" s="24" t="s">
         <v>211</v>
       </c>
@@ -8762,7 +8652,7 @@
       <c r="Y178" s="24"/>
       <c r="Z178" s="24"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:26" ht="14.4">
       <c r="A179" s="29" t="s">
         <v>212</v>
       </c>
@@ -8792,7 +8682,7 @@
       <c r="Y179" s="24"/>
       <c r="Z179" s="24"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:26" ht="18">
       <c r="A180" s="69" t="s">
         <v>10</v>
       </c>
@@ -8822,7 +8712,7 @@
       <c r="Y180" s="4"/>
       <c r="Z180" s="4"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:26" ht="14.4">
       <c r="A181" s="23" t="s">
         <v>213</v>
       </c>
@@ -8852,7 +8742,7 @@
       <c r="Y181" s="24"/>
       <c r="Z181" s="24"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:26" ht="14.4">
       <c r="A182" s="40" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/binary-tree-inorder-traversal/","Inorder Traversal")</f>
         <v>Inorder Traversal</v>
@@ -8885,7 +8775,7 @@
       <c r="Y182" s="24"/>
       <c r="Z182" s="24"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:26" ht="14.4">
       <c r="A183" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/binary-tree-preorder-traversal/","Preorder Traversal")</f>
         <v>Preorder Traversal</v>
@@ -8918,7 +8808,7 @@
       <c r="Y183" s="24"/>
       <c r="Z183" s="24"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:26" ht="14.4">
       <c r="A184" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/binary-tree-postorder-traversal/","Postorder Traversal")</f>
         <v>Postorder Traversal</v>
@@ -8951,7 +8841,7 @@
       <c r="Y184" s="24"/>
       <c r="Z184" s="24"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:26" ht="14.4">
       <c r="A185" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/binary-tree-level-order-traversal/","Binary Tree Level Order")</f>
         <v>Binary Tree Level Order</v>
@@ -8984,7 +8874,7 @@
       <c r="Y185" s="24"/>
       <c r="Z185" s="24"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:26" ht="14.4">
       <c r="A186" s="70" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/binary-search-tree-to-greater-sum-tree/","Binary search tree to greater sum")</f>
         <v>Binary search tree to greater sum</v>
@@ -9017,7 +8907,7 @@
       <c r="Y186" s="24"/>
       <c r="Z186" s="24"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:26" ht="14.4">
       <c r="A187" s="70" t="s">
         <v>219</v>
       </c>
@@ -9049,7 +8939,7 @@
       <c r="Y187" s="24"/>
       <c r="Z187" s="24"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:26" ht="14.4">
       <c r="A188" s="70" t="s">
         <v>220</v>
       </c>
@@ -9081,7 +8971,7 @@
       <c r="Y188" s="24"/>
       <c r="Z188" s="24"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:26" ht="14.4">
       <c r="A189" s="59" t="s">
         <v>222</v>
       </c>
@@ -9111,7 +9001,7 @@
       <c r="Y189" s="24"/>
       <c r="Z189" s="24"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:26" ht="14.4">
       <c r="A190" s="40" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/binary-tree-right-side-view/","right side view")</f>
         <v>right side view</v>
@@ -9144,7 +9034,7 @@
       <c r="Y190" s="24"/>
       <c r="Z190" s="24"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:26" ht="14.4">
       <c r="A191" s="29" t="str">
         <f>HYPERLINK("https://practice.geeksforgeeks.org/problems/left-view-of-binary-tree/1","Left View")</f>
         <v>Left View</v>
@@ -9177,7 +9067,7 @@
       <c r="Y191" s="24"/>
       <c r="Z191" s="24"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:26" ht="14.4">
       <c r="A192" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/print-nodes-in-the-top-view-of-binary-tree-set-3/","Top View")</f>
         <v>Top View</v>
@@ -9210,7 +9100,7 @@
       <c r="Y192" s="24"/>
       <c r="Z192" s="24"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:26" ht="14.4">
       <c r="A193" s="29" t="str">
         <f>HYPERLINK("https://practice.geeksforgeeks.org/problems/bottom-view-of-binary-tree/1","Bottom View")</f>
         <v>Bottom View</v>
@@ -9243,7 +9133,7 @@
       <c r="Y193" s="24"/>
       <c r="Z193" s="24"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:26" ht="14.4">
       <c r="A194" s="29" t="s">
         <v>227</v>
       </c>
@@ -9275,7 +9165,7 @@
       <c r="Y194" s="24"/>
       <c r="Z194" s="24"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:26" ht="14.4">
       <c r="A195" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree/","Vertical order")</f>
         <v>Vertical order</v>
@@ -9308,7 +9198,7 @@
       <c r="Y195" s="24"/>
       <c r="Z195" s="24"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:26" ht="14.4">
       <c r="A196" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/diagonal-traversal-of-binary-tree/","Diagonal Traversal")</f>
         <v>Diagonal Traversal</v>
@@ -9341,7 +9231,7 @@
       <c r="Y196" s="24"/>
       <c r="Z196" s="24"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:26" ht="14.4">
       <c r="A197" s="29" t="s">
         <v>230</v>
       </c>
@@ -9373,7 +9263,7 @@
       <c r="Y197" s="24"/>
       <c r="Z197" s="24"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:26" ht="14.4">
       <c r="A198" s="29" t="s">
         <v>232</v>
       </c>
@@ -9405,7 +9295,7 @@
       <c r="Y198" s="24"/>
       <c r="Z198" s="24"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:26" ht="14.4">
       <c r="A199" s="59" t="s">
         <v>234</v>
       </c>
@@ -9435,7 +9325,7 @@
       <c r="Y199" s="24"/>
       <c r="Z199" s="24"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:26" ht="14.4">
       <c r="A200" s="40" t="str">
         <f>HYPERLINK("https://practice.geeksforgeeks.org/problems/image-multiplication/0","image multiplication")</f>
         <v>image multiplication</v>
@@ -9468,7 +9358,7 @@
       <c r="Y200" s="24"/>
       <c r="Z200" s="24"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:26" ht="14.4">
       <c r="A201" s="29" t="s">
         <v>236</v>
       </c>
@@ -9500,7 +9390,7 @@
       <c r="Y201" s="24"/>
       <c r="Z201" s="24"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:26" ht="14.4">
       <c r="A202" s="29" t="s">
         <v>238</v>
       </c>
@@ -9532,7 +9422,7 @@
       <c r="Y202" s="24"/>
       <c r="Z202" s="24"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:26" ht="14.4">
       <c r="A203" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/","Lowest common ancestor in BST")</f>
         <v>Lowest common ancestor in BST</v>
@@ -9565,7 +9455,7 @@
       <c r="Y203" s="24"/>
       <c r="Z203" s="24"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:26" ht="14.4">
       <c r="A204" s="29" t="str">
         <f>HYPERLINK("https://practice.geeksforgeeks.org/problems/lowest-common-ancestor-in-a-binary-tree/1","Lowest common ancestor")</f>
         <v>Lowest common ancestor</v>
@@ -9598,7 +9488,7 @@
       <c r="Y204" s="24"/>
       <c r="Z204" s="24"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:26" ht="14.4">
       <c r="A205" s="30" t="s">
         <v>241</v>
       </c>
@@ -9628,7 +9518,7 @@
       <c r="Y205" s="24"/>
       <c r="Z205" s="24"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:26" ht="14.4">
       <c r="A206" s="70" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/distribute-coins-in-binary-tree/","Distribute coins in a binary tree")</f>
         <v>Distribute coins in a binary tree</v>
@@ -9661,7 +9551,7 @@
       <c r="Y206" s="24"/>
       <c r="Z206" s="24"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:26" ht="14.4">
       <c r="A207" s="70" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/binary-tree-cameras/","Binary Tree Cameras")</f>
         <v>Binary Tree Cameras</v>
@@ -9694,7 +9584,7 @@
       <c r="Y207" s="24"/>
       <c r="Z207" s="24"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:26" ht="14.4">
       <c r="A208" s="29" t="s">
         <v>244</v>
       </c>
@@ -9724,7 +9614,7 @@
       <c r="Y208" s="24"/>
       <c r="Z208" s="24"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:26" ht="14.4">
       <c r="A209" s="29" t="s">
         <v>245</v>
       </c>
@@ -9756,7 +9646,7 @@
       <c r="Y209" s="24"/>
       <c r="Z209" s="24"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:26" ht="14.4">
       <c r="A210" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/flatten-binary-tree-to-linked-list/","Flatten binary tree to linked list")</f>
         <v>Flatten binary tree to linked list</v>
@@ -9789,7 +9679,7 @@
       <c r="Y210" s="24"/>
       <c r="Z210" s="24"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:26" ht="14.4">
       <c r="A211" s="70" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/convert-a-binary-tree-to-a-circular-doubly-link-list/","Convert a binary tree to circular doubly linked list")</f>
         <v>Convert a binary tree to circular doubly linked list</v>
@@ -9822,7 +9712,7 @@
       <c r="Y211" s="24"/>
       <c r="Z211" s="24"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:26" ht="14.4">
       <c r="A212" s="71" t="s">
         <v>249</v>
       </c>
@@ -9852,7 +9742,7 @@
       <c r="Y212" s="24"/>
       <c r="Z212" s="24"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:26" ht="14.4">
       <c r="A213" s="40" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/in-place-conversion-of-sorted-dll-to-balanced-bst/","Conversion of sorted DLL to BST")</f>
         <v>Conversion of sorted DLL to BST</v>
@@ -9885,7 +9775,7 @@
       <c r="Y213" s="24"/>
       <c r="Z213" s="24"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:26" ht="14.4">
       <c r="A214" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/merge-two-balanced-binary-search-trees/","Merge Two BST")</f>
         <v>Merge Two BST</v>
@@ -9918,7 +9808,7 @@
       <c r="Y214" s="24"/>
       <c r="Z214" s="24"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:26" ht="14.4">
       <c r="A215" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/clone-binary-tree-random-pointers/","clone a binary tree with random pointer")</f>
         <v>clone a binary tree with random pointer</v>
@@ -9951,7 +9841,7 @@
       <c r="Y215" s="24"/>
       <c r="Z215" s="24"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:26" ht="14.4">
       <c r="A216" s="29" t="s">
         <v>253</v>
       </c>
@@ -9981,7 +9871,7 @@
       <c r="Y216" s="24"/>
       <c r="Z216" s="24"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:26" ht="14.4">
       <c r="A217" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/","Construct from inorder and preorder")</f>
         <v>Construct from inorder and preorder</v>
@@ -10014,7 +9904,7 @@
       <c r="Y217" s="24"/>
       <c r="Z217" s="24"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:26" ht="14.4">
       <c r="A218" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal/","Construct from inorder and postorder")</f>
         <v>Construct from inorder and postorder</v>
@@ -10047,7 +9937,7 @@
       <c r="Y218" s="24"/>
       <c r="Z218" s="24"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:26" ht="14.4">
       <c r="A219" s="30" t="s">
         <v>256</v>
       </c>
@@ -10077,7 +9967,7 @@
       <c r="Y219" s="24"/>
       <c r="Z219" s="24"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:26" ht="14.4">
       <c r="A220" s="40" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/construct-tree-inorder-level-order-traversals/","Inorder and level order")</f>
         <v>Inorder and level order</v>
@@ -10110,7 +10000,7 @@
       <c r="Y220" s="24"/>
       <c r="Z220" s="24"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:26" ht="14.4">
       <c r="A221" s="29" t="s">
         <v>258</v>
       </c>
@@ -10142,7 +10032,7 @@
       <c r="Y221" s="24"/>
       <c r="Z221" s="24"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:26" ht="14.4">
       <c r="A222" s="29" t="s">
         <v>260</v>
       </c>
@@ -10174,7 +10064,7 @@
       <c r="Y222" s="24"/>
       <c r="Z222" s="24"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:26" ht="14.4">
       <c r="A223" s="29" t="s">
         <v>262</v>
       </c>
@@ -10206,7 +10096,7 @@
       <c r="Y223" s="24"/>
       <c r="Z223" s="24"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:26" ht="14.4">
       <c r="A224" s="29" t="s">
         <v>263</v>
       </c>
@@ -10238,7 +10128,7 @@
       <c r="Y224" s="24"/>
       <c r="Z224" s="24"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:26" ht="14.4">
       <c r="A225" s="72" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/serialize-and-deserialize-binary-tree/","serialize and deserialise")</f>
         <v>serialize and deserialise</v>
@@ -10271,7 +10161,7 @@
       <c r="Y225" s="24"/>
       <c r="Z225" s="24"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:26" ht="14.4">
       <c r="A226" s="72" t="s">
         <v>266</v>
       </c>
@@ -10303,7 +10193,7 @@
       <c r="Y226" s="24"/>
       <c r="Z226" s="24"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:26" ht="14.4">
       <c r="A227" s="29" t="s">
         <v>267</v>
       </c>
@@ -10335,7 +10225,7 @@
       <c r="Y227" s="24"/>
       <c r="Z227" s="24"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:26" ht="14.4">
       <c r="A228" s="59" t="s">
         <v>269</v>
       </c>
@@ -10365,7 +10255,7 @@
       <c r="Y228" s="24"/>
       <c r="Z228" s="24"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:26" ht="14.4">
       <c r="A229" s="40" t="s">
         <v>270</v>
       </c>
@@ -10397,7 +10287,7 @@
       <c r="Y229" s="24"/>
       <c r="Z229" s="24"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:26" ht="14.4">
       <c r="A230" s="29" t="s">
         <v>272</v>
       </c>
@@ -10429,7 +10319,7 @@
       <c r="Y230" s="24"/>
       <c r="Z230" s="24"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:26" ht="14.4">
       <c r="A231" s="29" t="s">
         <v>273</v>
       </c>
@@ -10461,7 +10351,7 @@
       <c r="Y231" s="24"/>
       <c r="Z231" s="24"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:26" ht="14.4">
       <c r="A232" s="29" t="s">
         <v>275</v>
       </c>
@@ -10493,7 +10383,7 @@
       <c r="Y232" s="24"/>
       <c r="Z232" s="24"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:26" ht="13.2">
       <c r="A233" s="73" t="s">
         <v>277</v>
       </c>
@@ -10523,7 +10413,7 @@
       <c r="Y233" s="24"/>
       <c r="Z233" s="24"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:26" ht="14.4">
       <c r="A234" s="29" t="s">
         <v>278</v>
       </c>
@@ -10553,7 +10443,7 @@
       <c r="Y234" s="24"/>
       <c r="Z234" s="24"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:26" ht="18">
       <c r="A235" s="69" t="s">
         <v>279</v>
       </c>
@@ -10583,7 +10473,7 @@
       <c r="Y235" s="4"/>
       <c r="Z235" s="4"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:26" ht="14.4">
       <c r="A236" s="23" t="s">
         <v>280</v>
       </c>
@@ -10613,7 +10503,7 @@
       <c r="Y236" s="24"/>
       <c r="Z236" s="24"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:26" ht="14.4">
       <c r="A237" s="32" t="s">
         <v>281</v>
       </c>
@@ -10645,7 +10535,7 @@
       <c r="Y237" s="24"/>
       <c r="Z237" s="24"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:26" ht="13.8">
       <c r="A238" s="50" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/is-graph-bipartite/","Bipartite graph")</f>
         <v>Bipartite graph</v>
@@ -10678,7 +10568,7 @@
       <c r="Y238" s="24"/>
       <c r="Z238" s="24"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:26" ht="13.8">
       <c r="A239" s="50" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/bus-routes/","Bus routes")</f>
         <v>Bus routes</v>
@@ -10709,7 +10599,7 @@
       <c r="Y239" s="24"/>
       <c r="Z239" s="24"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:26" ht="13.8">
       <c r="A240" s="74" t="str">
         <f>HYPERLINK("https://www.spoj.com/problems/MST/","Prim's Algo")</f>
         <v>Prim's Algo</v>
@@ -10742,7 +10632,7 @@
       <c r="Y240" s="24"/>
       <c r="Z240" s="24"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:26" ht="14.4">
       <c r="A241" s="70" t="s">
         <v>285</v>
       </c>
@@ -10774,7 +10664,7 @@
       <c r="Y241" s="24"/>
       <c r="Z241" s="24"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:26" ht="13.8">
       <c r="A242" s="50" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/dijkstras-shortest-path-algorithm-greedy-algo-7/","Dijkstra algo")</f>
         <v>Dijkstra algo</v>
@@ -10807,7 +10697,7 @@
       <c r="Y242" s="24"/>
       <c r="Z242" s="24"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:26" ht="14.4">
       <c r="A243" s="30" t="s">
         <v>288</v>
       </c>
@@ -10837,7 +10727,7 @@
       <c r="Y243" s="24"/>
       <c r="Z243" s="24"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:26" ht="13.8">
       <c r="A244" s="25" t="str">
         <f>HYPERLINK("https://www.codechef.com/problems/REVERSE","chef and reversing")</f>
         <v>chef and reversing</v>
@@ -10870,7 +10760,7 @@
       <c r="Y244" s="24"/>
       <c r="Z244" s="24"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:26" ht="14.4">
       <c r="A245" s="29" t="s">
         <v>290</v>
       </c>
@@ -10902,7 +10792,7 @@
       <c r="Y245" s="24"/>
       <c r="Z245" s="24"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:26" ht="14.4">
       <c r="A246" s="26" t="str">
         <f>HYPERLINK("https://practice.geeksforgeeks.org/problems/depth-first-traversal-for-a-graph/1","DFS")</f>
         <v>DFS</v>
@@ -10935,7 +10825,7 @@
       <c r="Y246" s="24"/>
       <c r="Z246" s="24"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:26" ht="13.2">
       <c r="A247" s="73" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/evaluate-division/","evaluate division")</f>
         <v>evaluate division</v>
@@ -10966,7 +10856,7 @@
       <c r="Y247" s="24"/>
       <c r="Z247" s="24"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:26" ht="14.4">
       <c r="A248" s="26" t="s">
         <v>293</v>
       </c>
@@ -10996,7 +10886,7 @@
       <c r="Y248" s="24"/>
       <c r="Z248" s="24"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:26" ht="14.4">
       <c r="A249" s="26" t="s">
         <v>294</v>
       </c>
@@ -11028,7 +10918,7 @@
       <c r="Y249" s="24"/>
       <c r="Z249" s="24"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:26" ht="14.4">
       <c r="A250" s="26" t="s">
         <v>296</v>
       </c>
@@ -11060,7 +10950,7 @@
       <c r="Y250" s="24"/>
       <c r="Z250" s="24"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:26" ht="14.4">
       <c r="A251" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/01-matrix/","0-1 matrix")</f>
         <v>0-1 matrix</v>
@@ -11093,7 +10983,7 @@
       <c r="Y251" s="24"/>
       <c r="Z251" s="24"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:26" ht="14.4">
       <c r="A252" s="26" t="s">
         <v>299</v>
       </c>
@@ -11125,7 +11015,7 @@
       <c r="Y252" s="24"/>
       <c r="Z252" s="24"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:26" ht="14.4">
       <c r="A253" s="26" t="s">
         <v>301</v>
       </c>
@@ -11157,7 +11047,7 @@
       <c r="Y253" s="24"/>
       <c r="Z253" s="24"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:26" ht="14.4">
       <c r="A254" s="59" t="s">
         <v>303</v>
       </c>
@@ -11187,7 +11077,7 @@
       <c r="Y254" s="24"/>
       <c r="Z254" s="24"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:26" ht="14.4">
       <c r="A255" s="32" t="s">
         <v>304</v>
       </c>
@@ -11219,7 +11109,7 @@
       <c r="Y255" s="24"/>
       <c r="Z255" s="24"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:26" ht="13.8">
       <c r="A256" s="50" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/shortest-bridge/","Shortest bridge")</f>
         <v>Shortest bridge</v>
@@ -11250,7 +11140,7 @@
       <c r="Y256" s="24"/>
       <c r="Z256" s="24"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:26" ht="14.4">
       <c r="A257" s="33" t="s">
         <v>306</v>
       </c>
@@ -11282,7 +11172,7 @@
       <c r="Y257" s="24"/>
       <c r="Z257" s="24"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:26" ht="14.4">
       <c r="A258" s="26" t="s">
         <v>307</v>
       </c>
@@ -11312,7 +11202,7 @@
       <c r="Y258" s="24"/>
       <c r="Z258" s="24"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:26" ht="13.8">
       <c r="A259" s="50" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/bellman-ford-algorithm-dp-23/","bellman ford")</f>
         <v>bellman ford</v>
@@ -11345,7 +11235,7 @@
       <c r="Y259" s="24"/>
       <c r="Z259" s="24"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:26" ht="14.4">
       <c r="A260" s="30" t="s">
         <v>309</v>
       </c>
@@ -11375,7 +11265,7 @@
       <c r="Y260" s="24"/>
       <c r="Z260" s="24"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:26" ht="14.4">
       <c r="A261" s="32" t="s">
         <v>310</v>
       </c>
@@ -11407,7 +11297,7 @@
       <c r="Y261" s="24"/>
       <c r="Z261" s="24"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:26" ht="14.4">
       <c r="A262" s="26" t="s">
         <v>312</v>
       </c>
@@ -11439,7 +11329,7 @@
       <c r="Y262" s="24"/>
       <c r="Z262" s="24"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:26" ht="13.8">
       <c r="A263" s="74" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/topological-sorting/","topological sorting")</f>
         <v>topological sorting</v>
@@ -11472,7 +11362,7 @@
       <c r="Y263" s="24"/>
       <c r="Z263" s="24"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:26" ht="13.8">
       <c r="A264" s="74" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/topological-sorting-indegree-based-solution/","Kahn's algo")</f>
         <v>Kahn's algo</v>
@@ -11505,7 +11395,7 @@
       <c r="Y264" s="24"/>
       <c r="Z264" s="24"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:26" ht="13.8">
       <c r="A265" s="50" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/course-schedule-ii/","course schedule 2")</f>
         <v>course schedule 2</v>
@@ -11538,7 +11428,7 @@
       <c r="Y265" s="24"/>
       <c r="Z265" s="24"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:26" ht="14.4">
       <c r="A266" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/articulation-points-or-cut-vertices-in-a-graph/","Articulation point")</f>
         <v>Articulation point</v>
@@ -11571,7 +11461,7 @@
       <c r="Y266" s="24"/>
       <c r="Z266" s="24"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:26" ht="14.4">
       <c r="A267" s="31" t="s">
         <v>318</v>
       </c>
@@ -11603,7 +11493,7 @@
       <c r="Y267" s="24"/>
       <c r="Z267" s="24"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:26" ht="14.4">
       <c r="A268" s="31" t="s">
         <v>320</v>
       </c>
@@ -11635,7 +11525,7 @@
       <c r="Y268" s="24"/>
       <c r="Z268" s="24"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:26" ht="14.4">
       <c r="A269" s="26" t="s">
         <v>322</v>
       </c>
@@ -11667,7 +11557,7 @@
       <c r="Y269" s="24"/>
       <c r="Z269" s="24"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:26" ht="14.4">
       <c r="A270" s="59" t="s">
         <v>324</v>
       </c>
@@ -11697,7 +11587,7 @@
       <c r="Y270" s="24"/>
       <c r="Z270" s="24"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:26" ht="13.2">
       <c r="A271" s="48" t="s">
         <v>325</v>
       </c>
@@ -11727,7 +11617,7 @@
       <c r="Y271" s="24"/>
       <c r="Z271" s="24"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:26" ht="14.4">
       <c r="A272" s="75" t="s">
         <v>326</v>
       </c>
@@ -11757,7 +11647,7 @@
       <c r="Y272" s="24"/>
       <c r="Z272" s="24"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:26" ht="14.4">
       <c r="A273" s="29" t="s">
         <v>327</v>
       </c>
@@ -11789,7 +11679,7 @@
       <c r="Y273" s="24"/>
       <c r="Z273" s="24"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:26" ht="14.4">
       <c r="A274" s="31" t="s">
         <v>329</v>
       </c>
@@ -11821,7 +11711,7 @@
       <c r="Y274" s="24"/>
       <c r="Z274" s="24"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:26" ht="14.4">
       <c r="A275" s="46" t="s">
         <v>331</v>
       </c>
@@ -11853,7 +11743,7 @@
       <c r="Y275" s="24"/>
       <c r="Z275" s="24"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:26" ht="14.4">
       <c r="A276" s="31" t="s">
         <v>333</v>
       </c>
@@ -11885,7 +11775,7 @@
       <c r="Y276" s="24"/>
       <c r="Z276" s="24"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:26" ht="14.4">
       <c r="A277" s="31" t="s">
         <v>335</v>
       </c>
@@ -11917,7 +11807,7 @@
       <c r="Y277" s="24"/>
       <c r="Z277" s="24"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:26" ht="14.4">
       <c r="A278" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/redundant-connection-ii/","Redundant connection 2")</f>
         <v>Redundant connection 2</v>
@@ -11950,7 +11840,7 @@
       <c r="Y278" s="24"/>
       <c r="Z278" s="24"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:26" ht="14.4">
       <c r="A279" s="30" t="s">
         <v>338</v>
       </c>
@@ -11980,7 +11870,7 @@
       <c r="Y279" s="24"/>
       <c r="Z279" s="24"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:26" ht="14.4">
       <c r="A280" s="32" t="s">
         <v>339</v>
       </c>
@@ -12012,7 +11902,7 @@
       <c r="Y280" s="24"/>
       <c r="Z280" s="24"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:26" ht="14.4">
       <c r="A281" s="26" t="s">
         <v>341</v>
       </c>
@@ -12044,7 +11934,7 @@
       <c r="Y281" s="24"/>
       <c r="Z281" s="24"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:26" ht="14.4">
       <c r="A282" s="31" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/kruskals-minimum-spanning-tree-algorithm-greedy-algo-2/","Kruskal's algo")</f>
         <v>Kruskal's algo</v>
@@ -12077,7 +11967,7 @@
       <c r="Y282" s="24"/>
       <c r="Z282" s="24"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:26" ht="14.4">
       <c r="A283" s="31" t="s">
         <v>344</v>
       </c>
@@ -12109,7 +11999,7 @@
       <c r="Y283" s="24"/>
       <c r="Z283" s="24"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:26" ht="14.4">
       <c r="A284" s="26" t="s">
         <v>346</v>
       </c>
@@ -12141,7 +12031,7 @@
       <c r="Y284" s="24"/>
       <c r="Z284" s="24"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:26" ht="14.4">
       <c r="A285" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/sort-items-by-groups-respecting-dependencies/","Sort item by group accord to dependencies")</f>
         <v>Sort item by group accord to dependencies</v>
@@ -12174,7 +12064,7 @@
       <c r="Y285" s="24"/>
       <c r="Z285" s="24"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:26" ht="14.4">
       <c r="A286" s="30" t="s">
         <v>349</v>
       </c>
@@ -12204,7 +12094,7 @@
       <c r="Y286" s="24"/>
       <c r="Z286" s="24"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:26" ht="14.4">
       <c r="A287" s="32" t="s">
         <v>350</v>
       </c>
@@ -12236,7 +12126,7 @@
       <c r="Y287" s="24"/>
       <c r="Z287" s="24"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:26" ht="14.4">
       <c r="A288" s="76" t="s">
         <v>352</v>
       </c>
@@ -12268,7 +12158,7 @@
       <c r="Y288" s="24"/>
       <c r="Z288" s="24"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:26" ht="14.4">
       <c r="A289" s="76" t="s">
         <v>354</v>
       </c>
@@ -12300,7 +12190,7 @@
       <c r="Y289" s="24"/>
       <c r="Z289" s="24"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:26" ht="13.8">
       <c r="A290" s="50" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/minimum-number-swaps-required-sort-array/","Min swaps required to sort array")</f>
         <v>Min swaps required to sort array</v>
@@ -12333,7 +12223,7 @@
       <c r="Y290" s="24"/>
       <c r="Z290" s="24"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:26" ht="14.4">
       <c r="A291" s="30" t="s">
         <v>357</v>
       </c>
@@ -12363,7 +12253,7 @@
       <c r="Y291" s="24"/>
       <c r="Z291" s="24"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:26" ht="13.8">
       <c r="A292" s="25" t="s">
         <v>358</v>
       </c>
@@ -12393,7 +12283,7 @@
       <c r="Y292" s="24"/>
       <c r="Z292" s="24"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:26" ht="14.4">
       <c r="A293" s="29" t="s">
         <v>359</v>
       </c>
@@ -12423,7 +12313,7 @@
       <c r="Y293" s="24"/>
       <c r="Z293" s="24"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:26" ht="14.4">
       <c r="A294" s="29" t="s">
         <v>360</v>
       </c>
@@ -12453,7 +12343,7 @@
       <c r="Y294" s="24"/>
       <c r="Z294" s="24"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:26" ht="14.4">
       <c r="A295" s="29" t="s">
         <v>361</v>
       </c>
@@ -12485,7 +12375,7 @@
       <c r="Y295" s="24"/>
       <c r="Z295" s="24"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:26" ht="14.4">
       <c r="A296" s="29" t="s">
         <v>363</v>
       </c>
@@ -12515,7 +12405,7 @@
       <c r="Y296" s="24"/>
       <c r="Z296" s="24"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:26" ht="14.4">
       <c r="A297" s="29" t="s">
         <v>364</v>
       </c>
@@ -12545,7 +12435,7 @@
       <c r="Y297" s="24"/>
       <c r="Z297" s="24"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:26" ht="14.4">
       <c r="A298" s="29" t="s">
         <v>365</v>
       </c>
@@ -12575,7 +12465,7 @@
       <c r="Y298" s="24"/>
       <c r="Z298" s="24"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:26" ht="14.4">
       <c r="A299" s="59" t="s">
         <v>366</v>
       </c>
@@ -12605,7 +12495,7 @@
       <c r="Y299" s="24"/>
       <c r="Z299" s="24"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:26" ht="14.4">
       <c r="A300" s="40" t="s">
         <v>367</v>
       </c>
@@ -12635,7 +12525,7 @@
       <c r="Y300" s="24"/>
       <c r="Z300" s="24"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:26" ht="14.4">
       <c r="A301" s="29" t="s">
         <v>368</v>
       </c>
@@ -12665,7 +12555,7 @@
       <c r="Y301" s="24"/>
       <c r="Z301" s="24"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:26" ht="14.4">
       <c r="A302" s="29" t="s">
         <v>369</v>
       </c>
@@ -12697,7 +12587,7 @@
       <c r="Y302" s="24"/>
       <c r="Z302" s="24"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:26" ht="14.4">
       <c r="A303" s="29" t="s">
         <v>370</v>
       </c>
@@ -12729,7 +12619,7 @@
       <c r="Y303" s="24"/>
       <c r="Z303" s="24"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:26" ht="14.4">
       <c r="A304" s="29" t="s">
         <v>372</v>
       </c>
@@ -12759,7 +12649,7 @@
       <c r="Y304" s="24"/>
       <c r="Z304" s="24"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:26" ht="14.4">
       <c r="A305" s="29" t="s">
         <v>373</v>
       </c>
@@ -12789,7 +12679,7 @@
       <c r="Y305" s="24"/>
       <c r="Z305" s="24"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:26" ht="14.4">
       <c r="A306" s="77" t="s">
         <v>374</v>
       </c>
@@ -12821,7 +12711,7 @@
       <c r="Y306" s="24"/>
       <c r="Z306" s="24"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:26" ht="14.4">
       <c r="A307" s="77" t="s">
         <v>376</v>
       </c>
@@ -12851,7 +12741,7 @@
       <c r="Y307" s="24"/>
       <c r="Z307" s="24"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:26" ht="18">
       <c r="A308" s="54" t="s">
         <v>377</v>
       </c>
@@ -12881,7 +12771,7 @@
       <c r="Y308" s="4"/>
       <c r="Z308" s="4"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:26" ht="14.4">
       <c r="A309" s="23" t="s">
         <v>378</v>
       </c>
@@ -12911,7 +12801,7 @@
       <c r="Y309" s="24"/>
       <c r="Z309" s="24"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:26" ht="14.4">
       <c r="A310" s="40" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/subarray-sum-equals-k/","number of subarrays sum exactly k")</f>
         <v>number of subarrays sum exactly k</v>
@@ -12944,7 +12834,7 @@
       <c r="Y310" s="24"/>
       <c r="Z310" s="24"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:26" ht="14.4">
       <c r="A311" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/count-sub-arrays-sum-divisible-k/","Subarray sum Divisible by k")</f>
         <v>Subarray sum Divisible by k</v>
@@ -12977,7 +12867,7 @@
       <c r="Y311" s="24"/>
       <c r="Z311" s="24"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:26" ht="14.4">
       <c r="A312" s="29" t="s">
         <v>381</v>
       </c>
@@ -13007,7 +12897,7 @@
       <c r="Y312" s="24"/>
       <c r="Z312" s="24"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:26" ht="14.4">
       <c r="A313" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/count-subarrays-equal-number-1s-0s/","subarray with equal number of 0 and 1")</f>
         <v>subarray with equal number of 0 and 1</v>
@@ -13040,7 +12930,7 @@
       <c r="Y313" s="24"/>
       <c r="Z313" s="24"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:26" ht="14.4">
       <c r="A314" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/substring-equal-number-0-1-2/","Substring with equal 0 1 and 2")</f>
         <v>Substring with equal 0 1 and 2</v>
@@ -13073,7 +12963,7 @@
       <c r="Y314" s="24"/>
       <c r="Z314" s="24"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:26" ht="14.4">
       <c r="A315" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/k-closest-points-to-origin/","K closest point from origin")</f>
         <v>K closest point from origin</v>
@@ -13106,7 +12996,7 @@
       <c r="Y315" s="24"/>
       <c r="Z315" s="24"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:26" ht="14.4">
       <c r="A316" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/maximum-consecutive-ones-or-zeros-in-a-binary-array/","Longest consecutive 1's")</f>
         <v>Longest consecutive 1's</v>
@@ -13139,7 +13029,7 @@
       <c r="Y316" s="24"/>
       <c r="Z316" s="24"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:26" ht="14.4">
       <c r="A317" s="46"/>
       <c r="B317" s="24"/>
       <c r="C317" s="24"/>
@@ -13167,7 +13057,7 @@
       <c r="Y317" s="24"/>
       <c r="Z317" s="24"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:26" ht="14.4">
       <c r="A318" s="78" t="s">
         <v>386</v>
       </c>
@@ -13197,7 +13087,7 @@
       <c r="Y318" s="24"/>
       <c r="Z318" s="24"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:26" ht="14.4">
       <c r="A319" s="40" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/minimum-number-of-refueling-stops/","Minimum number of refueling spots")</f>
         <v>Minimum number of refueling spots</v>
@@ -13230,7 +13120,7 @@
       <c r="Y319" s="24"/>
       <c r="Z319" s="24"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:26" ht="14.4">
       <c r="A320" s="29" t="s">
         <v>388</v>
       </c>
@@ -13260,7 +13150,7 @@
       <c r="Y320" s="24"/>
       <c r="Z320" s="24"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:26" ht="14.4">
       <c r="A321" s="46" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/x-of-a-kind-in-a-deck-of-cards/","X of akind in a deck")</f>
         <v>X of akind in a deck</v>
@@ -13293,7 +13183,7 @@
       <c r="Y321" s="24"/>
       <c r="Z321" s="24"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:26" ht="14.4">
       <c r="A322" s="46" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/check-whether-arithmetic-progression-can-formed-given-array/","Check AP sequence")</f>
         <v>Check AP sequence</v>
@@ -13326,7 +13216,7 @@
       <c r="Y322" s="24"/>
       <c r="Z322" s="24"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:26" ht="14.4">
       <c r="A323" s="29"/>
       <c r="B323" s="24"/>
       <c r="C323" s="24"/>
@@ -13354,7 +13244,7 @@
       <c r="Y323" s="24"/>
       <c r="Z323" s="24"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:26" ht="14.4">
       <c r="A324" s="30" t="s">
         <v>391</v>
       </c>
@@ -13384,7 +13274,7 @@
       <c r="Y324" s="24"/>
       <c r="Z324" s="24"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:26" ht="14.4">
       <c r="A325" s="40" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/array-of-doubled-pairs/","Array of doubled Pair")</f>
         <v>Array of doubled Pair</v>
@@ -13417,7 +13307,7 @@
       <c r="Y325" s="24"/>
       <c r="Z325" s="24"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:26" ht="14.4">
       <c r="A326" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/rabbits-in-forest/","Rabbits in forest")</f>
         <v>Rabbits in forest</v>
@@ -13450,7 +13340,7 @@
       <c r="Y326" s="24"/>
       <c r="Z326" s="24"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:26" ht="14.4">
       <c r="A327" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/longest-consecutive-sequence/","Longest consecutive sequence")</f>
         <v>Longest consecutive sequence</v>
@@ -13483,7 +13373,7 @@
       <c r="Y327" s="24"/>
       <c r="Z327" s="24"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:26" ht="14.4">
       <c r="A328" s="29" t="s">
         <v>395</v>
       </c>
@@ -13515,7 +13405,7 @@
       <c r="Y328" s="24"/>
       <c r="Z328" s="24"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:26" ht="14.4">
       <c r="A329" s="29" t="str">
         <f>HYPERLINK("https://practice.geeksforgeeks.org/problems/morning-assembly/0","Morning Assembly")</f>
         <v>Morning Assembly</v>
@@ -13548,7 +13438,7 @@
       <c r="Y329" s="24"/>
       <c r="Z329" s="24"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:26" ht="14.4">
       <c r="A330" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/brick-wall/","Brick wall")</f>
         <v>Brick wall</v>
@@ -13579,7 +13469,7 @@
       <c r="Y330" s="24"/>
       <c r="Z330" s="24"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:26" ht="14.4">
       <c r="A331" s="30" t="s">
         <v>398</v>
       </c>
@@ -13609,7 +13499,7 @@
       <c r="Y331" s="24"/>
       <c r="Z331" s="24"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:26" ht="14.4">
       <c r="A332" s="40" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/grid-illumination/","Grid illumination")</f>
         <v>Grid illumination</v>
@@ -13642,7 +13532,7 @@
       <c r="Y332" s="24"/>
       <c r="Z332" s="24"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:26" ht="14.4">
       <c r="A333" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/island-perimeter/","Island perimeter")</f>
         <v>Island perimeter</v>
@@ -13675,7 +13565,7 @@
       <c r="Y333" s="24"/>
       <c r="Z333" s="24"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:26" ht="14.4">
       <c r="A334" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/bulb-switcher/","bulb switcher")</f>
         <v>bulb switcher</v>
@@ -13708,7 +13598,7 @@
       <c r="Y334" s="24"/>
       <c r="Z334" s="24"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:26" ht="14.4">
       <c r="A335" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/isomorphic-strings/","Isomorphic string")</f>
         <v>Isomorphic string</v>
@@ -13741,7 +13631,7 @@
       <c r="Y335" s="24"/>
       <c r="Z335" s="24"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:26" ht="14.4">
       <c r="A336" s="29" t="str">
         <f>HYPERLINK("https://practice.geeksforgeeks.org/problems/pairs-of-non-coinciding-points/0","Pairs of coinciding points")</f>
         <v>Pairs of coinciding points</v>
@@ -13774,7 +13664,7 @@
       <c r="Y336" s="24"/>
       <c r="Z336" s="24"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:26" ht="13.2">
       <c r="A337" s="24"/>
       <c r="B337" s="24"/>
       <c r="C337" s="24"/>
@@ -13802,7 +13692,7 @@
       <c r="Y337" s="24"/>
       <c r="Z337" s="24"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:26" ht="14.4">
       <c r="A338" s="30" t="s">
         <v>403</v>
       </c>
@@ -13832,7 +13722,7 @@
       <c r="Y338" s="24"/>
       <c r="Z338" s="24"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:26" ht="14.4">
       <c r="A339" s="40" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/trapping-rain-water/","trapping rain water")</f>
         <v>trapping rain water</v>
@@ -13865,7 +13755,7 @@
       <c r="Y339" s="24"/>
       <c r="Z339" s="24"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:26" ht="14.4">
       <c r="A340" s="26" t="s">
         <v>405</v>
       </c>
@@ -13897,7 +13787,7 @@
       <c r="Y340" s="24"/>
       <c r="Z340" s="24"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:26" ht="14.4">
       <c r="A341" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/count-pairs-in-array-whose-sum-is-divisible-by-k/","Count Pair whose sum is divisible by k")</f>
         <v>Count Pair whose sum is divisible by k</v>
@@ -13930,7 +13820,7 @@
       <c r="Y341" s="24"/>
       <c r="Z341" s="24"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:26" ht="14.4">
       <c r="A342" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/length-largest-subarray-contiguous-elements-set-1/","length of largest subarray with continuous element")</f>
         <v>length of largest subarray with continuous element</v>
@@ -13963,7 +13853,7 @@
       <c r="Y342" s="24"/>
       <c r="Z342" s="24"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:26" ht="14.4">
       <c r="A343" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/length-largest-subarray-contiguous-elements-set-2/","length of largest subarray with cont element 2")</f>
         <v>length of largest subarray with cont element 2</v>
@@ -13996,7 +13886,7 @@
       <c r="Y343" s="24"/>
       <c r="Z343" s="24"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:26" ht="14.4">
       <c r="A344" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/find-smallest-number-whose-digits-multiply-given-number-n/","smallest number whose digit mult to given no.")</f>
         <v>smallest number whose digit mult to given no.</v>
@@ -14029,7 +13919,7 @@
       <c r="Y344" s="24"/>
       <c r="Z344" s="24"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:26" ht="14.4">
       <c r="A345" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/check-if-frequency-of-all-characters-can-become-same-by-one-removal/","same frequency after one removal")</f>
         <v>same frequency after one removal</v>
@@ -14062,7 +13952,7 @@
       <c r="Y345" s="24"/>
       <c r="Z345" s="24"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:26" ht="14.4">
       <c r="A346" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/insert-delete-getrandom-o1/","Insert Delete GetRandom O(1)")</f>
         <v>Insert Delete GetRandom O(1)</v>
@@ -14095,7 +13985,7 @@
       <c r="Y346" s="24"/>
       <c r="Z346" s="24"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:26" ht="14.4">
       <c r="A347" s="29"/>
       <c r="B347" s="24"/>
       <c r="C347" s="24"/>
@@ -14123,7 +14013,7 @@
       <c r="Y347" s="24"/>
       <c r="Z347" s="24"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:26" ht="14.4">
       <c r="A348" s="30" t="s">
         <v>413</v>
       </c>
@@ -14153,7 +14043,7 @@
       <c r="Y348" s="24"/>
       <c r="Z348" s="24"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:26" ht="14.4">
       <c r="A349" s="40" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/insert-delete-getrandom-o1-duplicates-allowed/","Insert delete get random duplicates allowed")</f>
         <v>Insert delete get random duplicates allowed</v>
@@ -14186,7 +14076,7 @@
       <c r="Y349" s="24"/>
       <c r="Z349" s="24"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:26" ht="14.4">
       <c r="A350" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/find-all-anagrams-in-a-string/","Find all anagrams in a string")</f>
         <v>Find all anagrams in a string</v>
@@ -14219,7 +14109,7 @@
       <c r="Y350" s="24"/>
       <c r="Z350" s="24"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:26" ht="14.4">
       <c r="A351" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/check-anagram-string-palindrome-not/","Anagram Pallindrome")</f>
         <v>Anagram Pallindrome</v>
@@ -14252,7 +14142,7 @@
       <c r="Y351" s="24"/>
       <c r="Z351" s="24"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:26" ht="14.4">
       <c r="A352" s="46" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/minimum-window-substring/","Find smallest size of string containing all char of other")</f>
         <v>Find smallest size of string containing all char of other</v>
@@ -14285,7 +14175,7 @@
       <c r="Y352" s="24"/>
       <c r="Z352" s="24"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:26" ht="14.4">
       <c r="A353" s="46" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/group-anagrams/","Group anagram")</f>
         <v>Group anagram</v>
@@ -14318,7 +14208,7 @@
       <c r="Y353" s="24"/>
       <c r="Z353" s="24"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:26" ht="14.4">
       <c r="A354" s="46" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/length-of-the-longest-substring-without-repeating-characters/","longest substring with unique character")</f>
         <v>longest substring with unique character</v>
@@ -14351,7 +14241,7 @@
       <c r="Y354" s="24"/>
       <c r="Z354" s="24"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:26" ht="14.4">
       <c r="A355" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/smallest-subarray-with-all-occurrences-of-a-most-frequent-element/","smallest subarray with all the occurence of MFE")</f>
         <v>smallest subarray with all the occurence of MFE</v>
@@ -14384,7 +14274,7 @@
       <c r="Y355" s="24"/>
       <c r="Z355" s="24"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:26" ht="14.4">
       <c r="A356" s="29" t="s">
         <v>421</v>
       </c>
@@ -14416,7 +14306,7 @@
       <c r="Y356" s="24"/>
       <c r="Z356" s="24"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:26" ht="14.4">
       <c r="A357" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/check-two-strings-k-anagrams-not/","K anagram")</f>
         <v>K anagram</v>
@@ -14449,7 +14339,7 @@
       <c r="Y357" s="24"/>
       <c r="Z357" s="24"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:26" ht="14.4">
       <c r="A358" s="29"/>
       <c r="B358" s="24"/>
       <c r="C358" s="24"/>
@@ -14477,7 +14367,7 @@
       <c r="Y358" s="24"/>
       <c r="Z358" s="24"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:26" ht="14.4">
       <c r="A359" s="30" t="s">
         <v>424</v>
       </c>
@@ -14507,7 +14397,7 @@
       <c r="Y359" s="24"/>
       <c r="Z359" s="24"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:26" ht="14.4">
       <c r="A360" s="79" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/rearrange-characters-string-no-two-adjacent/","rearrange character string such that no two are same")</f>
         <v>rearrange character string such that no two are same</v>
@@ -14540,7 +14430,7 @@
       <c r="Y360" s="24"/>
       <c r="Z360" s="24"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:26" ht="14.4">
       <c r="A361" s="29" t="s">
         <v>426</v>
       </c>
@@ -14572,7 +14462,7 @@
       <c r="Y361" s="24"/>
       <c r="Z361" s="24"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:26" ht="14.4">
       <c r="A362" s="29" t="s">
         <v>427</v>
       </c>
@@ -14604,7 +14494,7 @@
       <c r="Y362" s="24"/>
       <c r="Z362" s="24"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:26" ht="14.4">
       <c r="A363" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix/","Kth smallest element in sorted 2d matrix")</f>
         <v>Kth smallest element in sorted 2d matrix</v>
@@ -14637,7 +14527,7 @@
       <c r="Y363" s="24"/>
       <c r="Z363" s="24"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:26" ht="14.4">
       <c r="A364" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/k-th-smallest-prime-fraction/","Kth smallest prime fraction")</f>
         <v>Kth smallest prime fraction</v>
@@ -14670,7 +14560,7 @@
       <c r="Y364" s="24"/>
       <c r="Z364" s="24"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:26" ht="14.4">
       <c r="A365" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/employee-free-time/","Employee Free time")</f>
         <v>Employee Free time</v>
@@ -14703,7 +14593,7 @@
       <c r="Y365" s="24"/>
       <c r="Z365" s="24"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:26" ht="13.2">
       <c r="A366" s="24"/>
       <c r="B366" s="24"/>
       <c r="C366" s="24"/>
@@ -14731,7 +14621,7 @@
       <c r="Y366" s="24"/>
       <c r="Z366" s="24"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:26" ht="18">
       <c r="A367" s="80" t="s">
         <v>17</v>
       </c>
@@ -14761,7 +14651,7 @@
       <c r="Y367" s="4"/>
       <c r="Z367" s="4"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:26" ht="14.4">
       <c r="A368" s="23" t="s">
         <v>430</v>
       </c>
@@ -14791,7 +14681,7 @@
       <c r="Y368" s="44"/>
       <c r="Z368" s="44"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:26" ht="14.4">
       <c r="A369" s="66" t="s">
         <v>431</v>
       </c>
@@ -14821,7 +14711,7 @@
       <c r="Y369" s="24"/>
       <c r="Z369" s="24"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:26" ht="14.4">
       <c r="A370" s="81" t="s">
         <v>432</v>
       </c>
@@ -14851,7 +14741,7 @@
       <c r="Y370" s="24"/>
       <c r="Z370" s="24"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:26" ht="14.4">
       <c r="A371" s="81" t="s">
         <v>433</v>
       </c>
@@ -14881,7 +14771,7 @@
       <c r="Y371" s="24"/>
       <c r="Z371" s="24"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:26" ht="14.4">
       <c r="A372" s="65" t="s">
         <v>434</v>
       </c>
@@ -14911,7 +14801,7 @@
       <c r="Y372" s="24"/>
       <c r="Z372" s="24"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:26" ht="14.4">
       <c r="A373" s="65" t="s">
         <v>435</v>
       </c>
@@ -14941,7 +14831,7 @@
       <c r="Y373" s="24"/>
       <c r="Z373" s="24"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:26" ht="14.4">
       <c r="A374" s="65" t="s">
         <v>436</v>
       </c>
@@ -14971,7 +14861,7 @@
       <c r="Y374" s="24"/>
       <c r="Z374" s="24"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:26" ht="14.4">
       <c r="A375" s="65" t="s">
         <v>437</v>
       </c>
@@ -15001,7 +14891,7 @@
       <c r="Y375" s="24"/>
       <c r="Z375" s="24"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:26" ht="14.4">
       <c r="A376" s="65" t="s">
         <v>438</v>
       </c>
@@ -15031,7 +14921,7 @@
       <c r="Y376" s="24"/>
       <c r="Z376" s="24"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:26" ht="14.4">
       <c r="A377" s="59" t="s">
         <v>439</v>
       </c>
@@ -15061,7 +14951,7 @@
       <c r="Y377" s="24"/>
       <c r="Z377" s="24"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:26" ht="14.4">
       <c r="A378" s="66" t="s">
         <v>440</v>
       </c>
@@ -15091,7 +14981,7 @@
       <c r="Y378" s="24"/>
       <c r="Z378" s="24"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:26" ht="14.4">
       <c r="A379" s="65" t="s">
         <v>441</v>
       </c>
@@ -15121,7 +15011,7 @@
       <c r="Y379" s="24"/>
       <c r="Z379" s="24"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:26" ht="14.4">
       <c r="A380" s="82" t="s">
         <v>442</v>
       </c>
@@ -15151,7 +15041,7 @@
       <c r="Y380" s="24"/>
       <c r="Z380" s="24"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:26" ht="14.4">
       <c r="A381" s="65" t="s">
         <v>443</v>
       </c>
@@ -15181,7 +15071,7 @@
       <c r="Y381" s="24"/>
       <c r="Z381" s="24"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:26" ht="14.4">
       <c r="A382" s="65" t="s">
         <v>444</v>
       </c>
@@ -15211,7 +15101,7 @@
       <c r="Y382" s="24"/>
       <c r="Z382" s="24"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:26" ht="14.4">
       <c r="A383" s="65" t="s">
         <v>445</v>
       </c>
@@ -15241,7 +15131,7 @@
       <c r="Y383" s="24"/>
       <c r="Z383" s="24"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:26" ht="14.4">
       <c r="A384" s="65" t="s">
         <v>446</v>
       </c>
@@ -15271,7 +15161,7 @@
       <c r="Y384" s="24"/>
       <c r="Z384" s="24"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:26" ht="14.4">
       <c r="A385" s="65" t="s">
         <v>447</v>
       </c>
@@ -15301,7 +15191,7 @@
       <c r="Y385" s="24"/>
       <c r="Z385" s="24"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:26" ht="14.4">
       <c r="A386" s="59" t="s">
         <v>448</v>
       </c>
@@ -15331,7 +15221,7 @@
       <c r="Y386" s="24"/>
       <c r="Z386" s="24"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:26" ht="14.4">
       <c r="A387" s="66" t="s">
         <v>449</v>
       </c>
@@ -15361,7 +15251,7 @@
       <c r="Y387" s="24"/>
       <c r="Z387" s="24"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:26" ht="14.4">
       <c r="A388" s="65" t="s">
         <v>450</v>
       </c>
@@ -15391,7 +15281,7 @@
       <c r="Y388" s="24"/>
       <c r="Z388" s="24"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:26" ht="14.4">
       <c r="A389" s="65" t="s">
         <v>451</v>
       </c>
@@ -15421,7 +15311,7 @@
       <c r="Y389" s="24"/>
       <c r="Z389" s="24"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:26" ht="14.4">
       <c r="A390" s="65" t="s">
         <v>452</v>
       </c>
@@ -15451,7 +15341,7 @@
       <c r="Y390" s="24"/>
       <c r="Z390" s="24"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:26" ht="14.4">
       <c r="A391" s="65" t="s">
         <v>453</v>
       </c>
@@ -15481,7 +15371,7 @@
       <c r="Y391" s="24"/>
       <c r="Z391" s="24"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:26" ht="14.4">
       <c r="A392" s="65" t="s">
         <v>454</v>
       </c>
@@ -15511,7 +15401,7 @@
       <c r="Y392" s="24"/>
       <c r="Z392" s="24"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:26" ht="14.4">
       <c r="A393" s="65" t="s">
         <v>455</v>
       </c>
@@ -15541,7 +15431,7 @@
       <c r="Y393" s="24"/>
       <c r="Z393" s="24"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:26" ht="14.4">
       <c r="A394" s="65" t="s">
         <v>456</v>
       </c>
@@ -15571,7 +15461,7 @@
       <c r="Y394" s="24"/>
       <c r="Z394" s="24"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:26" ht="14.4">
       <c r="A395" s="59" t="s">
         <v>457</v>
       </c>
@@ -15601,7 +15491,7 @@
       <c r="Y395" s="24"/>
       <c r="Z395" s="24"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:26" ht="14.4">
       <c r="A396" s="66" t="s">
         <v>458</v>
       </c>
@@ -15631,7 +15521,7 @@
       <c r="Y396" s="24"/>
       <c r="Z396" s="24"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:26" ht="14.4">
       <c r="A397" s="65" t="s">
         <v>459</v>
       </c>
@@ -15661,7 +15551,7 @@
       <c r="Y397" s="24"/>
       <c r="Z397" s="24"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:26" ht="14.4">
       <c r="A398" s="65" t="s">
         <v>460</v>
       </c>
@@ -15691,7 +15581,7 @@
       <c r="Y398" s="24"/>
       <c r="Z398" s="24"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:26" ht="14.4">
       <c r="A399" s="65" t="s">
         <v>461</v>
       </c>
@@ -15721,7 +15611,7 @@
       <c r="Y399" s="24"/>
       <c r="Z399" s="24"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:26" ht="14.4">
       <c r="A400" s="65" t="s">
         <v>462</v>
       </c>
@@ -15751,7 +15641,7 @@
       <c r="Y400" s="24"/>
       <c r="Z400" s="24"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:26" ht="14.4">
       <c r="A401" s="65" t="s">
         <v>463</v>
       </c>
@@ -15781,7 +15671,7 @@
       <c r="Y401" s="24"/>
       <c r="Z401" s="24"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:26" ht="14.4">
       <c r="A402" s="59" t="s">
         <v>464</v>
       </c>
@@ -15811,7 +15701,7 @@
       <c r="Y402" s="24"/>
       <c r="Z402" s="24"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:26" ht="14.4">
       <c r="A403" s="66" t="s">
         <v>465</v>
       </c>
@@ -15841,7 +15731,7 @@
       <c r="Y403" s="24"/>
       <c r="Z403" s="24"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:26" ht="14.4">
       <c r="A404" s="65" t="s">
         <v>466</v>
       </c>
@@ -15871,7 +15761,7 @@
       <c r="Y404" s="24"/>
       <c r="Z404" s="24"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:26" ht="14.4">
       <c r="A405" s="65" t="s">
         <v>467</v>
       </c>
@@ -15901,7 +15791,7 @@
       <c r="Y405" s="24"/>
       <c r="Z405" s="24"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:26" ht="14.4">
       <c r="A406" s="65" t="s">
         <v>468</v>
       </c>
@@ -15931,7 +15821,7 @@
       <c r="Y406" s="24"/>
       <c r="Z406" s="24"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:26" ht="14.4">
       <c r="A407" s="65" t="s">
         <v>469</v>
       </c>
@@ -15961,7 +15851,7 @@
       <c r="Y407" s="24"/>
       <c r="Z407" s="24"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:26" ht="18">
       <c r="A408" s="69" t="s">
         <v>23</v>
       </c>
@@ -15991,7 +15881,7 @@
       <c r="Y408" s="4"/>
       <c r="Z408" s="4"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:26" ht="14.4">
       <c r="A409" s="23" t="s">
         <v>470</v>
       </c>
@@ -16021,7 +15911,7 @@
       <c r="Y409" s="24"/>
       <c r="Z409" s="24"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:26" ht="14.4">
       <c r="A410" s="66" t="s">
         <v>471</v>
       </c>
@@ -16051,7 +15941,7 @@
       <c r="Y410" s="24"/>
       <c r="Z410" s="24"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:26" ht="14.4">
       <c r="A411" s="65" t="s">
         <v>472</v>
       </c>
@@ -16081,7 +15971,7 @@
       <c r="Y411" s="24"/>
       <c r="Z411" s="24"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:26" ht="14.4">
       <c r="A412" s="65" t="s">
         <v>473</v>
       </c>
@@ -16111,7 +16001,7 @@
       <c r="Y412" s="24"/>
       <c r="Z412" s="24"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:26" ht="14.4">
       <c r="A413" s="65" t="s">
         <v>474</v>
       </c>
@@ -16141,7 +16031,7 @@
       <c r="Y413" s="24"/>
       <c r="Z413" s="24"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:26" ht="14.4">
       <c r="A414" s="65" t="s">
         <v>475</v>
       </c>
@@ -16171,7 +16061,7 @@
       <c r="Y414" s="24"/>
       <c r="Z414" s="24"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:26" ht="14.4">
       <c r="A415" s="59" t="s">
         <v>476</v>
       </c>
@@ -16201,7 +16091,7 @@
       <c r="Y415" s="24"/>
       <c r="Z415" s="24"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:26" ht="14.4">
       <c r="A416" s="66" t="s">
         <v>477</v>
       </c>
@@ -16231,7 +16121,7 @@
       <c r="Y416" s="24"/>
       <c r="Z416" s="24"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:26" ht="14.4">
       <c r="A417" s="65" t="s">
         <v>478</v>
       </c>
@@ -16261,7 +16151,7 @@
       <c r="Y417" s="24"/>
       <c r="Z417" s="24"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:26" ht="14.4">
       <c r="A418" s="65" t="s">
         <v>479</v>
       </c>
@@ -16291,7 +16181,7 @@
       <c r="Y418" s="24"/>
       <c r="Z418" s="24"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:26" ht="14.4">
       <c r="A419" s="65" t="s">
         <v>480</v>
       </c>
@@ -16321,7 +16211,7 @@
       <c r="Y419" s="24"/>
       <c r="Z419" s="24"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:26" ht="14.4">
       <c r="A420" s="59" t="s">
         <v>481</v>
       </c>
@@ -16351,7 +16241,7 @@
       <c r="Y420" s="24"/>
       <c r="Z420" s="24"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:26" ht="14.4">
       <c r="A421" s="66" t="s">
         <v>482</v>
       </c>
@@ -16381,7 +16271,7 @@
       <c r="Y421" s="24"/>
       <c r="Z421" s="24"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:26" ht="14.4">
       <c r="A422" s="65" t="s">
         <v>483</v>
       </c>
@@ -16411,7 +16301,7 @@
       <c r="Y422" s="24"/>
       <c r="Z422" s="24"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:26" ht="14.4">
       <c r="A423" s="65" t="s">
         <v>484</v>
       </c>
@@ -16441,7 +16331,7 @@
       <c r="Y423" s="24"/>
       <c r="Z423" s="24"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:26" ht="14.4">
       <c r="A424" s="65" t="s">
         <v>485</v>
       </c>
@@ -16471,7 +16361,7 @@
       <c r="Y424" s="24"/>
       <c r="Z424" s="24"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:26" ht="14.4">
       <c r="A425" s="65" t="s">
         <v>486</v>
       </c>
@@ -16501,7 +16391,7 @@
       <c r="Y425" s="24"/>
       <c r="Z425" s="24"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:26" ht="14.4">
       <c r="A426" s="59" t="s">
         <v>487</v>
       </c>
@@ -16531,7 +16421,7 @@
       <c r="Y426" s="24"/>
       <c r="Z426" s="24"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:26" ht="14.4">
       <c r="A427" s="66" t="s">
         <v>488</v>
       </c>
@@ -16561,7 +16451,7 @@
       <c r="Y427" s="24"/>
       <c r="Z427" s="24"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:26" ht="14.4">
       <c r="A428" s="65" t="s">
         <v>489</v>
       </c>
@@ -16591,7 +16481,7 @@
       <c r="Y428" s="24"/>
       <c r="Z428" s="24"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:26" ht="14.4">
       <c r="A429" s="65" t="s">
         <v>490</v>
       </c>
@@ -16621,7 +16511,7 @@
       <c r="Y429" s="24"/>
       <c r="Z429" s="24"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:26" ht="14.4">
       <c r="A430" s="65" t="s">
         <v>491</v>
       </c>
@@ -16651,7 +16541,7 @@
       <c r="Y430" s="24"/>
       <c r="Z430" s="24"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:26" ht="14.4">
       <c r="A431" s="65" t="s">
         <v>492</v>
       </c>
@@ -16681,7 +16571,7 @@
       <c r="Y431" s="24"/>
       <c r="Z431" s="24"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:26" ht="13.2">
       <c r="A432" s="24"/>
       <c r="B432" s="24"/>
       <c r="C432" s="24"/>
@@ -16709,7 +16599,7 @@
       <c r="Y432" s="24"/>
       <c r="Z432" s="24"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:26" ht="18">
       <c r="A433" s="54" t="s">
         <v>20</v>
       </c>
@@ -16739,7 +16629,7 @@
       <c r="Y433" s="4"/>
       <c r="Z433" s="4"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:26" ht="14.4">
       <c r="A434" s="23" t="s">
         <v>493</v>
       </c>
@@ -16769,7 +16659,7 @@
       <c r="Y434" s="24"/>
       <c r="Z434" s="24"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:26" ht="13.2">
       <c r="A435" s="83" t="s">
         <v>494</v>
       </c>
@@ -16801,7 +16691,7 @@
       <c r="Y435" s="24"/>
       <c r="Z435" s="24"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:26" ht="13.2">
       <c r="A436" s="73" t="s">
         <v>494</v>
       </c>
@@ -16833,7 +16723,7 @@
       <c r="Y436" s="24"/>
       <c r="Z436" s="24"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:26" ht="13.2">
       <c r="A437" s="73" t="s">
         <v>497</v>
       </c>
@@ -16865,7 +16755,7 @@
       <c r="Y437" s="24"/>
       <c r="Z437" s="24"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:26" ht="14.4">
       <c r="A438" s="62" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/russian-doll-envelopes/","Russian doll envelopes")</f>
         <v>Russian doll envelopes</v>
@@ -16898,7 +16788,7 @@
       <c r="Y438" s="24"/>
       <c r="Z438" s="24"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:26" ht="14.4">
       <c r="A439" s="46" t="s">
         <v>500</v>
       </c>
@@ -16930,7 +16820,7 @@
       <c r="Y439" s="24"/>
       <c r="Z439" s="24"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:26" ht="14.4">
       <c r="A440" s="29" t="s">
         <v>502</v>
       </c>
@@ -16962,7 +16852,7 @@
       <c r="Y440" s="24"/>
       <c r="Z440" s="24"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:26" ht="13.2">
       <c r="A441" s="73" t="s">
         <v>504</v>
       </c>
@@ -16994,7 +16884,7 @@
       <c r="Y441" s="24"/>
       <c r="Z441" s="24"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:26" ht="14.4">
       <c r="A442" s="59" t="s">
         <v>506</v>
       </c>
@@ -17024,7 +16914,7 @@
       <c r="Y442" s="24"/>
       <c r="Z442" s="24"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:26" ht="14.4">
       <c r="A443" s="46" t="s">
         <v>507</v>
       </c>
@@ -17056,7 +16946,7 @@
       <c r="Y443" s="24"/>
       <c r="Z443" s="24"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:26" ht="14.4">
       <c r="A444" s="46" t="s">
         <v>508</v>
       </c>
@@ -17088,7 +16978,7 @@
       <c r="Y444" s="24"/>
       <c r="Z444" s="24"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:26" ht="14.4">
       <c r="A445" s="46" t="s">
         <v>509</v>
       </c>
@@ -17120,7 +17010,7 @@
       <c r="Y445" s="24"/>
       <c r="Z445" s="24"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:26" ht="14.4">
       <c r="A446" s="29" t="s">
         <v>510</v>
       </c>
@@ -17152,7 +17042,7 @@
       <c r="Y446" s="24"/>
       <c r="Z446" s="24"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:26" ht="14.4">
       <c r="A447" s="29" t="s">
         <v>512</v>
       </c>
@@ -17182,7 +17072,7 @@
       <c r="Y447" s="24"/>
       <c r="Z447" s="24"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:26" ht="14.4">
       <c r="A448" s="84" t="s">
         <v>513</v>
       </c>
@@ -17212,7 +17102,7 @@
       <c r="Y448" s="24"/>
       <c r="Z448" s="24"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:26" ht="13.8">
       <c r="A449" s="60" t="s">
         <v>514</v>
       </c>
@@ -17244,7 +17134,7 @@
       <c r="Y449" s="24"/>
       <c r="Z449" s="24"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:26" ht="13.8">
       <c r="A450" s="60" t="s">
         <v>516</v>
       </c>
@@ -17274,7 +17164,7 @@
       <c r="Y450" s="24"/>
       <c r="Z450" s="24"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:26" ht="14.4">
       <c r="A451" s="62" t="s">
         <v>517</v>
       </c>
@@ -17306,7 +17196,7 @@
       <c r="Y451" s="24"/>
       <c r="Z451" s="24"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:26" ht="13.8">
       <c r="A452" s="60" t="s">
         <v>519</v>
       </c>
@@ -17338,7 +17228,7 @@
       <c r="Y452" s="24"/>
       <c r="Z452" s="24"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:26" ht="14.4">
       <c r="A453" s="59" t="s">
         <v>520</v>
       </c>
@@ -17368,7 +17258,7 @@
       <c r="Y453" s="24"/>
       <c r="Z453" s="24"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:26" ht="14.4">
       <c r="A454" s="40" t="s">
         <v>521</v>
       </c>
@@ -17398,7 +17288,7 @@
       <c r="Y454" s="24"/>
       <c r="Z454" s="24"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:26" ht="14.4">
       <c r="A455" s="62" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/best-time-to-buy-and-sell-stock/","best time to buy and sell stock")</f>
         <v>best time to buy and sell stock</v>
@@ -17431,7 +17321,7 @@
       <c r="Y455" s="24"/>
       <c r="Z455" s="24"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:26" ht="14.4">
       <c r="A456" s="62" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/best-time-to-buy-and-sell-stock-ii/","best time to buy and sell 2")</f>
         <v>best time to buy and sell 2</v>
@@ -17464,7 +17354,7 @@
       <c r="Y456" s="24"/>
       <c r="Z456" s="24"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:26" ht="14.4">
       <c r="A457" s="46" t="s">
         <v>524</v>
       </c>
@@ -17496,7 +17386,7 @@
       <c r="Y457" s="24"/>
       <c r="Z457" s="24"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:26" ht="14.4">
       <c r="A458" s="62" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-cooldown/","best time to buy and sell with cool down")</f>
         <v>best time to buy and sell with cool down</v>
@@ -17529,7 +17419,7 @@
       <c r="Y458" s="24"/>
       <c r="Z458" s="24"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:26" ht="14.4">
       <c r="A459" s="62" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iii/","best time to buy and sell 3")</f>
         <v>best time to buy and sell 3</v>
@@ -17562,7 +17452,7 @@
       <c r="Y459" s="24"/>
       <c r="Z459" s="24"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:26" ht="14.4">
       <c r="A460" s="62" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iv/","best time to but and sell 4")</f>
         <v>best time to but and sell 4</v>
@@ -17595,7 +17485,7 @@
       <c r="Y460" s="24"/>
       <c r="Z460" s="24"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:26" ht="13.8">
       <c r="A461" s="60" t="s">
         <v>529</v>
       </c>
@@ -17627,7 +17517,7 @@
       <c r="Y461" s="24"/>
       <c r="Z461" s="24"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:26" ht="14.4">
       <c r="A462" s="59" t="s">
         <v>531</v>
       </c>
@@ -17657,7 +17547,7 @@
       <c r="Y462" s="24"/>
       <c r="Z462" s="24"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:26" ht="13.8">
       <c r="A463" s="25" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/burst-balloons/","burst balloons")</f>
         <v>burst balloons</v>
@@ -17690,7 +17580,7 @@
       <c r="Y463" s="24"/>
       <c r="Z463" s="24"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:26" ht="13.8">
       <c r="A464" s="50" t="s">
         <v>533</v>
       </c>
@@ -17722,7 +17612,7 @@
       <c r="Y464" s="24"/>
       <c r="Z464" s="24"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:26" ht="13.8">
       <c r="A465" s="60" t="s">
         <v>535</v>
       </c>
@@ -17754,7 +17644,7 @@
       <c r="Y465" s="24"/>
       <c r="Z465" s="24"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:26" ht="13.8">
       <c r="A466" s="60" t="s">
         <v>536</v>
       </c>
@@ -17786,7 +17676,7 @@
       <c r="Y466" s="24"/>
       <c r="Z466" s="24"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:26" ht="13.8">
       <c r="A467" s="50" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/minimum-score-triangulation-of-polygon/","Minimum score triangulation")</f>
         <v>Minimum score triangulation</v>
@@ -17819,7 +17709,7 @@
       <c r="Y467" s="24"/>
       <c r="Z467" s="24"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:26" ht="13.8">
       <c r="A468" s="50" t="s">
         <v>539</v>
       </c>
@@ -17851,7 +17741,7 @@
       <c r="Y468" s="24"/>
       <c r="Z468" s="24"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:26" ht="14.4">
       <c r="A469" s="59" t="s">
         <v>541</v>
       </c>
@@ -17881,7 +17771,7 @@
       <c r="Y469" s="24"/>
       <c r="Z469" s="24"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:26" ht="13.8">
       <c r="A470" s="25" t="s">
         <v>542</v>
       </c>
@@ -17913,7 +17803,7 @@
       <c r="Y470" s="24"/>
       <c r="Z470" s="24"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:26" ht="13.8">
       <c r="A471" s="60" t="s">
         <v>544</v>
       </c>
@@ -17945,7 +17835,7 @@
       <c r="Y471" s="24"/>
       <c r="Z471" s="24"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:26" ht="13.8">
       <c r="A472" s="60" t="s">
         <v>545</v>
       </c>
@@ -17977,7 +17867,7 @@
       <c r="Y472" s="24"/>
       <c r="Z472" s="24"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:26" ht="13.8">
       <c r="A473" s="60" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/count-palindromic-subsequence-given-string/","Count all pallindromic subsequence")</f>
         <v>Count all pallindromic subsequence</v>
@@ -18008,7 +17898,7 @@
       <c r="Y473" s="24"/>
       <c r="Z473" s="24"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:26" ht="13.8">
       <c r="A474" s="60" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/count-different-palindromic-subsequences/","Count distinct pallindromic subsequence")</f>
         <v>Count distinct pallindromic subsequence</v>
@@ -18039,7 +17929,7 @@
       <c r="Y474" s="24"/>
       <c r="Z474" s="24"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:26" ht="14.4">
       <c r="A475" s="46" t="s">
         <v>547</v>
       </c>
@@ -18069,7 +17959,7 @@
       <c r="Y475" s="24"/>
       <c r="Z475" s="24"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:26" ht="13.8">
       <c r="A476" s="50" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/number-subsequences-form-ai-bj-ck/","No. of sequence of type a^i+b^j+c^k")</f>
         <v>No. of sequence of type a^i+b^j+c^k</v>
@@ -18102,7 +17992,7 @@
       <c r="Y476" s="24"/>
       <c r="Z476" s="24"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:26" ht="14.4">
       <c r="A477" s="29" t="s">
         <v>549</v>
       </c>
@@ -18132,7 +18022,7 @@
       <c r="Y477" s="24"/>
       <c r="Z477" s="24"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:26" ht="14.4">
       <c r="A478" s="59" t="s">
         <v>550</v>
       </c>
@@ -18162,7 +18052,7 @@
       <c r="Y478" s="24"/>
       <c r="Z478" s="24"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:26" ht="13.8">
       <c r="A479" s="25" t="s">
         <v>551</v>
       </c>
@@ -18194,7 +18084,7 @@
       <c r="Y479" s="24"/>
       <c r="Z479" s="24"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:26" ht="13.8">
       <c r="A480" s="60" t="s">
         <v>552</v>
       </c>
@@ -18224,7 +18114,7 @@
       <c r="Y480" s="24"/>
       <c r="Z480" s="24"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:26" ht="13.8">
       <c r="A481" s="60" t="s">
         <v>553</v>
       </c>
@@ -18254,7 +18144,7 @@
       <c r="Y481" s="24"/>
       <c r="Z481" s="24"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:26" ht="13.8">
       <c r="A482" s="60" t="s">
         <v>554</v>
       </c>
@@ -18284,7 +18174,7 @@
       <c r="Y482" s="24"/>
       <c r="Z482" s="24"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:26" ht="13.8">
       <c r="A483" s="50" t="s">
         <v>555</v>
       </c>
@@ -18314,7 +18204,7 @@
       <c r="Y483" s="24"/>
       <c r="Z483" s="24"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:26" ht="13.8">
       <c r="A484" s="85" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/super-ugly-number-number-whose-prime-factors-given-set/","Super ugly number")</f>
         <v>Super ugly number</v>
@@ -18347,7 +18237,7 @@
       <c r="Y484" s="24"/>
       <c r="Z484" s="24"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:26" ht="13.2">
       <c r="A485" s="86" t="s">
         <v>557</v>
       </c>
@@ -18377,7 +18267,7 @@
       <c r="Y485" s="24"/>
       <c r="Z485" s="24"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:26" ht="13.8">
       <c r="A486" s="50" t="s">
         <v>558</v>
       </c>
@@ -18409,7 +18299,7 @@
       <c r="Y486" s="24"/>
       <c r="Z486" s="24"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:26" ht="14.4">
       <c r="A487" s="59" t="s">
         <v>560</v>
       </c>
@@ -18439,7 +18329,7 @@
       <c r="Y487" s="24"/>
       <c r="Z487" s="24"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:26" ht="13.8">
       <c r="A488" s="25" t="s">
         <v>561</v>
       </c>
@@ -18469,7 +18359,7 @@
       <c r="Y488" s="24"/>
       <c r="Z488" s="24"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:26" ht="14.4">
       <c r="A489" s="29" t="s">
         <v>562</v>
       </c>
@@ -18499,7 +18389,7 @@
       <c r="Y489" s="24"/>
       <c r="Z489" s="24"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:26" ht="13.8">
       <c r="A490" s="50" t="s">
         <v>563</v>
       </c>
@@ -18529,7 +18419,7 @@
       <c r="Y490" s="24"/>
       <c r="Z490" s="24"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:26" ht="14.4">
       <c r="A491" s="29" t="s">
         <v>564</v>
       </c>
@@ -18559,7 +18449,7 @@
       <c r="Y491" s="24"/>
       <c r="Z491" s="24"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:26" ht="14.4">
       <c r="A492" s="29" t="s">
         <v>565</v>
       </c>
@@ -18589,7 +18479,7 @@
       <c r="Y492" s="24"/>
       <c r="Z492" s="24"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:26" ht="14.4">
       <c r="A493" s="29" t="s">
         <v>566</v>
       </c>
@@ -18619,7 +18509,7 @@
       <c r="Y493" s="24"/>
       <c r="Z493" s="24"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:26" ht="14.4">
       <c r="A494" s="59" t="s">
         <v>567</v>
       </c>
@@ -18649,7 +18539,7 @@
       <c r="Y494" s="24"/>
       <c r="Z494" s="24"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:26" ht="14.4">
       <c r="A495" s="40" t="s">
         <v>568</v>
       </c>
@@ -18679,7 +18569,7 @@
       <c r="Y495" s="24"/>
       <c r="Z495" s="24"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:26" ht="14.4">
       <c r="A496" s="29" t="s">
         <v>569</v>
       </c>
@@ -18709,7 +18599,7 @@
       <c r="Y496" s="24"/>
       <c r="Z496" s="24"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:26" ht="14.4">
       <c r="A497" s="29" t="s">
         <v>570</v>
       </c>
@@ -18739,7 +18629,7 @@
       <c r="Y497" s="24"/>
       <c r="Z497" s="24"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:26" ht="14.4">
       <c r="A498" s="29" t="s">
         <v>571</v>
       </c>
@@ -18769,7 +18659,7 @@
       <c r="Y498" s="24"/>
       <c r="Z498" s="24"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:26" ht="13.8">
       <c r="A499" s="50" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/scramble-string/","Scramble string")</f>
         <v>Scramble string</v>
@@ -18802,7 +18692,7 @@
       <c r="Y499" s="24"/>
       <c r="Z499" s="24"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:26" ht="14.4">
       <c r="A500" s="29" t="s">
         <v>573</v>
       </c>
@@ -18832,7 +18722,7 @@
       <c r="Y500" s="24"/>
       <c r="Z500" s="24"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:26" ht="14.4">
       <c r="A501" s="29" t="s">
         <v>574</v>
       </c>
@@ -18862,7 +18752,7 @@
       <c r="Y501" s="24"/>
       <c r="Z501" s="24"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:26" ht="14.4">
       <c r="A502" s="59" t="s">
         <v>575</v>
       </c>
@@ -18892,7 +18782,7 @@
       <c r="Y502" s="24"/>
       <c r="Z502" s="24"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:26" ht="14.4">
       <c r="A503" s="40" t="s">
         <v>576</v>
       </c>
@@ -18922,7 +18812,7 @@
       <c r="Y503" s="24"/>
       <c r="Z503" s="24"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:26" ht="14.4">
       <c r="A504" s="29" t="s">
         <v>577</v>
       </c>
@@ -18952,7 +18842,7 @@
       <c r="Y504" s="24"/>
       <c r="Z504" s="24"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:26" ht="14.4">
       <c r="A505" s="29" t="s">
         <v>578</v>
       </c>
@@ -18982,7 +18872,7 @@
       <c r="Y505" s="24"/>
       <c r="Z505" s="24"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:26" ht="13.8">
       <c r="A506" s="60" t="s">
         <v>579</v>
       </c>
@@ -19014,7 +18904,7 @@
       <c r="Y506" s="24"/>
       <c r="Z506" s="24"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:26" ht="14.4">
       <c r="A507" s="46" t="s">
         <v>580</v>
       </c>
@@ -19044,7 +18934,7 @@
       <c r="Y507" s="24"/>
       <c r="Z507" s="24"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:26" ht="13.8">
       <c r="A508" s="87" t="s">
         <v>581</v>
       </c>
@@ -19074,7 +18964,7 @@
       <c r="Y508" s="21"/>
       <c r="Z508" s="21"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:26" ht="14.4">
       <c r="A509" s="23" t="s">
         <v>582</v>
       </c>
@@ -19104,7 +18994,7 @@
       <c r="Y509" s="44"/>
       <c r="Z509" s="44"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:26" ht="14.4">
       <c r="A510" s="25" t="str">
         <f>HYPERLINK("https://www.spoj.com/problems/NAJPF/","KMP")</f>
         <v>KMP</v>
@@ -19137,7 +19027,7 @@
       <c r="Y510" s="24"/>
       <c r="Z510" s="24"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:26" ht="14.4">
       <c r="A511" s="50" t="s">
         <v>584</v>
       </c>
@@ -19169,7 +19059,7 @@
       <c r="Y511" s="24"/>
       <c r="Z511" s="24"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:26" ht="14.4">
       <c r="A512" s="26" t="s">
         <v>586</v>
       </c>
@@ -19201,7 +19091,7 @@
       <c r="Y512" s="24"/>
       <c r="Z512" s="24"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:26" ht="13.8">
       <c r="A513" s="50" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/z-algorithm-linear-time-pattern-searching-algorithm/","Z algo")</f>
         <v>Z algo</v>
@@ -19234,7 +19124,7 @@
       <c r="Y513" s="24"/>
       <c r="Z513" s="24"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:26" ht="13.8">
       <c r="A514" s="50" t="str">
         <f>HYPERLINK("https://www.codechef.com/COOK103B/problems/SECPASS","chef and secret password")</f>
         <v>chef and secret password</v>
@@ -19267,7 +19157,7 @@
       <c r="Y514" s="24"/>
       <c r="Z514" s="24"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:26" ht="13.8">
       <c r="A515" s="50" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/manachers-algorithm-linear-time-longest-palindromic-substring-part-1/","Manacher's algo")</f>
         <v>Manacher's algo</v>
@@ -19300,7 +19190,7 @@
       <c r="Y515" s="24"/>
       <c r="Z515" s="24"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:26" ht="14.4">
       <c r="A516" s="30" t="s">
         <v>591</v>
       </c>
@@ -19330,7 +19220,7 @@
       <c r="Y516" s="24"/>
       <c r="Z516" s="24"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:26" ht="13.8">
       <c r="A517" s="88" t="s">
         <v>592</v>
       </c>
@@ -19362,7 +19252,7 @@
       <c r="Y517" s="24"/>
       <c r="Z517" s="24"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:26" ht="14.4">
       <c r="A518" s="72" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/scramble-string/","Scramble string")</f>
         <v>Scramble string</v>
@@ -19395,7 +19285,7 @@
       <c r="Y518" s="24"/>
       <c r="Z518" s="24"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:26" ht="13.8">
       <c r="A519" s="89" t="s">
         <v>594</v>
       </c>
@@ -19425,7 +19315,7 @@
       <c r="Y519" s="24"/>
       <c r="Z519" s="24"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:26" ht="13.8">
       <c r="A520" s="50" t="s">
         <v>595</v>
       </c>
@@ -19455,7 +19345,7 @@
       <c r="Y520" s="24"/>
       <c r="Z520" s="24"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:26" ht="13.8">
       <c r="A521" s="50" t="s">
         <v>596</v>
       </c>
@@ -19487,7 +19377,7 @@
       <c r="Y521" s="24"/>
       <c r="Z521" s="24"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:26" ht="17.399999999999999">
       <c r="A522" s="90" t="s">
         <v>24</v>
       </c>
@@ -19517,7 +19407,7 @@
       <c r="Y522" s="4"/>
       <c r="Z522" s="4"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:26" ht="14.4">
       <c r="A523" s="23" t="s">
         <v>598</v>
       </c>
@@ -19547,7 +19437,7 @@
       <c r="Y523" s="24"/>
       <c r="Z523" s="24"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:26" ht="13.8">
       <c r="A524" s="91" t="s">
         <v>599</v>
       </c>
@@ -19577,7 +19467,7 @@
       <c r="Y524" s="24"/>
       <c r="Z524" s="24"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:26" ht="13.8">
       <c r="A525" s="49" t="s">
         <v>600</v>
       </c>
@@ -19607,7 +19497,7 @@
       <c r="Y525" s="24"/>
       <c r="Z525" s="24"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:26" ht="14.4">
       <c r="A526" s="92" t="s">
         <v>601</v>
       </c>
@@ -19637,7 +19527,7 @@
       <c r="Y526" s="24"/>
       <c r="Z526" s="24"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:26" ht="14.4">
       <c r="A527" s="92" t="s">
         <v>602</v>
       </c>
@@ -19667,7 +19557,7 @@
       <c r="Y527" s="24"/>
       <c r="Z527" s="24"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:26" ht="13.8">
       <c r="A528" s="49" t="s">
         <v>603</v>
       </c>
@@ -19697,7 +19587,7 @@
       <c r="Y528" s="24"/>
       <c r="Z528" s="24"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:26" ht="14.4">
       <c r="A529" s="92" t="s">
         <v>604</v>
       </c>
@@ -19727,7 +19617,7 @@
       <c r="Y529" s="24"/>
       <c r="Z529" s="24"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:26" ht="14.4">
       <c r="A530" s="92" t="s">
         <v>605</v>
       </c>
@@ -19757,7 +19647,7 @@
       <c r="Y530" s="24"/>
       <c r="Z530" s="24"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:26" ht="14.4">
       <c r="A531" s="93" t="s">
         <v>606</v>
       </c>
@@ -19787,7 +19677,7 @@
       <c r="Y531" s="24"/>
       <c r="Z531" s="24"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:26" ht="13.8">
       <c r="A532" s="94" t="s">
         <v>607</v>
       </c>
@@ -19817,7 +19707,7 @@
       <c r="Y532" s="24"/>
       <c r="Z532" s="24"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:26" ht="13.8">
       <c r="A533" s="49" t="s">
         <v>608</v>
       </c>
@@ -19847,7 +19737,7 @@
       <c r="Y533" s="24"/>
       <c r="Z533" s="24"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:26" ht="13.8">
       <c r="A534" s="49" t="s">
         <v>609</v>
       </c>
@@ -19877,7 +19767,7 @@
       <c r="Y534" s="24"/>
       <c r="Z534" s="24"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:26" ht="13.8">
       <c r="A535" s="49" t="s">
         <v>610</v>
       </c>
@@ -19907,7 +19797,7 @@
       <c r="Y535" s="24"/>
       <c r="Z535" s="24"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:26" ht="13.8">
       <c r="A536" s="49" t="s">
         <v>611</v>
       </c>
@@ -19937,7 +19827,7 @@
       <c r="Y536" s="24"/>
       <c r="Z536" s="24"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:26" ht="13.8">
       <c r="A537" s="49" t="s">
         <v>612</v>
       </c>
@@ -19967,7 +19857,7 @@
       <c r="Y537" s="24"/>
       <c r="Z537" s="24"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:26" ht="13.8">
       <c r="A538" s="49" t="s">
         <v>613</v>
       </c>
@@ -19997,7 +19887,7 @@
       <c r="Y538" s="24"/>
       <c r="Z538" s="24"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:26" ht="13.8">
       <c r="A539" s="49"/>
       <c r="B539" s="44"/>
       <c r="C539" s="44"/>
@@ -20025,7 +19915,7 @@
       <c r="Y539" s="24"/>
       <c r="Z539" s="24"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:26" ht="17.399999999999999">
       <c r="A540" s="95" t="s">
         <v>25</v>
       </c>
@@ -20055,7 +19945,7 @@
       <c r="Y540" s="4"/>
       <c r="Z540" s="4"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:26" ht="14.4">
       <c r="A541" s="96" t="s">
         <v>614</v>
       </c>
@@ -20085,7 +19975,7 @@
       <c r="Y541" s="24"/>
       <c r="Z541" s="24"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:26" ht="13.8">
       <c r="A542" s="25" t="s">
         <v>615</v>
       </c>
@@ -20117,7 +20007,7 @@
       <c r="Y542" s="24"/>
       <c r="Z542" s="24"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:26" ht="13.8">
       <c r="A543" s="91" t="s">
         <v>617</v>
       </c>
@@ -20149,7 +20039,7 @@
       <c r="Y543" s="44"/>
       <c r="Z543" s="44"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:26" ht="13.8">
       <c r="A544" s="25" t="s">
         <v>619</v>
       </c>
@@ -20181,7 +20071,7 @@
       <c r="Y544" s="24"/>
       <c r="Z544" s="24"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:26" ht="13.8">
       <c r="A545" s="25" t="s">
         <v>621</v>
       </c>
@@ -20213,7 +20103,7 @@
       <c r="Y545" s="24"/>
       <c r="Z545" s="24"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:26" ht="13.8">
       <c r="A546" s="25" t="s">
         <v>623</v>
       </c>
@@ -20245,7 +20135,7 @@
       <c r="Y546" s="24"/>
       <c r="Z546" s="24"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:26" ht="13.8">
       <c r="A547" s="25" t="s">
         <v>625</v>
       </c>
@@ -20277,7 +20167,7 @@
       <c r="Y547" s="24"/>
       <c r="Z547" s="24"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:26" ht="30">
       <c r="A548" s="8"/>
       <c r="B548" s="97" t="s">
         <v>627</v>
@@ -20307,11 +20197,11 @@
       <c r="Y548" s="8"/>
       <c r="Z548" s="8"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:26" ht="15.6">
       <c r="A591" s="50"/>
       <c r="B591" s="98"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:26" ht="45">
       <c r="A592" s="99"/>
       <c r="B592" s="100"/>
       <c r="C592" s="99"/>
@@ -20339,7 +20229,7 @@
       <c r="Y592" s="99"/>
       <c r="Z592" s="99"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:26" ht="13.2">
       <c r="A593" s="99"/>
       <c r="B593" s="99"/>
       <c r="C593" s="99"/>
@@ -20367,7 +20257,7 @@
       <c r="Y593" s="99"/>
       <c r="Z593" s="99"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:26" ht="19.8">
       <c r="A594" s="101"/>
       <c r="B594" s="102"/>
       <c r="C594" s="99"/>
@@ -20395,7 +20285,7 @@
       <c r="Y594" s="99"/>
       <c r="Z594" s="99"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:26" ht="21">
       <c r="A595" s="101"/>
       <c r="B595" s="103"/>
       <c r="C595" s="99"/>
@@ -20423,7 +20313,7 @@
       <c r="Y595" s="99"/>
       <c r="Z595" s="99"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:26" ht="21">
       <c r="A596" s="101"/>
       <c r="B596" s="103"/>
       <c r="C596" s="99"/>
@@ -20451,7 +20341,7 @@
       <c r="Y596" s="99"/>
       <c r="Z596" s="99"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:26" ht="13.2">
       <c r="A597" s="99"/>
       <c r="B597" s="99"/>
       <c r="C597" s="99"/>
@@ -20479,390 +20369,389 @@
       <c r="Y597" s="99"/>
       <c r="Z597" s="99"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:26" ht="13.8">
       <c r="A598" s="104"/>
       <c r="B598" s="50"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:26" ht="13.8">
       <c r="A599" s="104"/>
       <c r="B599" s="50"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:26" ht="14.4">
       <c r="A600" s="104"/>
       <c r="B600" s="105"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:26" ht="14.4">
       <c r="A601" s="104"/>
       <c r="B601" s="105"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:26" ht="13.8">
       <c r="A602" s="104"/>
       <c r="B602" s="50"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:26" ht="14.4">
       <c r="A603" s="104"/>
       <c r="B603" s="105"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:26" ht="14.4">
       <c r="A604" s="104"/>
       <c r="B604" s="105"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:26" ht="13.8">
       <c r="A605" s="104"/>
       <c r="B605" s="106"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:26" ht="13.8">
       <c r="A606" s="104"/>
       <c r="B606" s="50"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:26" ht="13.8">
       <c r="A607" s="104"/>
       <c r="B607" s="50"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:26" ht="13.8">
       <c r="A608" s="104"/>
       <c r="B608" s="50"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:2" ht="13.8">
       <c r="A609" s="104"/>
       <c r="B609" s="50"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:2" ht="13.8">
       <c r="A610" s="104"/>
       <c r="B610" s="50"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:2" ht="13.8">
       <c r="A611" s="104"/>
       <c r="B611" s="50"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:2" ht="13.2">
       <c r="A612" s="24"/>
       <c r="B612" s="24"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:2" ht="13.8">
       <c r="A613" s="104"/>
       <c r="B613" s="107"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:2" ht="13.8">
       <c r="A614" s="104"/>
       <c r="B614" s="107"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:2" ht="13.8">
       <c r="A615" s="104"/>
       <c r="B615" s="107"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:2" ht="13.8">
       <c r="A616" s="104"/>
       <c r="B616" s="107"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:2" ht="13.8">
       <c r="A617" s="104"/>
       <c r="B617" s="107"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:2" ht="13.8">
       <c r="A618" s="104"/>
       <c r="B618" s="107"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B4"/>
-    <hyperlink r:id="rId2" ref="A18"/>
-    <hyperlink r:id="rId3" ref="A19"/>
-    <hyperlink r:id="rId4" ref="A20"/>
-    <hyperlink r:id="rId5" ref="A21"/>
-    <hyperlink r:id="rId6" ref="A22"/>
-    <hyperlink r:id="rId7" ref="A28"/>
-    <hyperlink r:id="rId8" ref="A31"/>
-    <hyperlink r:id="rId9" ref="A38"/>
-    <hyperlink r:id="rId10" ref="A39"/>
-    <hyperlink r:id="rId11" ref="A41"/>
-    <hyperlink r:id="rId12" ref="A42"/>
-    <hyperlink r:id="rId13" ref="A43"/>
-    <hyperlink r:id="rId14" ref="A44"/>
-    <hyperlink r:id="rId15" ref="A45"/>
-    <hyperlink r:id="rId16" ref="A48"/>
-    <hyperlink r:id="rId17" ref="A51"/>
-    <hyperlink r:id="rId18" ref="A53"/>
-    <hyperlink r:id="rId19" ref="A60"/>
-    <hyperlink r:id="rId20" ref="A69"/>
-    <hyperlink r:id="rId21" ref="A72"/>
-    <hyperlink r:id="rId22" ref="A73"/>
-    <hyperlink r:id="rId23" ref="A75"/>
-    <hyperlink r:id="rId24" ref="A77"/>
-    <hyperlink r:id="rId25" ref="A78"/>
-    <hyperlink r:id="rId26" ref="A79"/>
-    <hyperlink r:id="rId27" ref="A81"/>
-    <hyperlink r:id="rId28" ref="A84"/>
-    <hyperlink r:id="rId29" ref="A85"/>
-    <hyperlink r:id="rId30" ref="A87"/>
-    <hyperlink r:id="rId31" ref="A88"/>
-    <hyperlink r:id="rId32" ref="A92"/>
-    <hyperlink r:id="rId33" ref="A93"/>
-    <hyperlink r:id="rId34" ref="A94"/>
-    <hyperlink r:id="rId35" ref="A95"/>
-    <hyperlink r:id="rId36" ref="A96"/>
-    <hyperlink r:id="rId37" ref="A97"/>
-    <hyperlink r:id="rId38" ref="A98"/>
-    <hyperlink r:id="rId39" ref="A99"/>
-    <hyperlink r:id="rId40" ref="A100"/>
-    <hyperlink r:id="rId41" ref="A101"/>
-    <hyperlink r:id="rId42" ref="A110"/>
-    <hyperlink r:id="rId43" ref="A113"/>
-    <hyperlink r:id="rId44" ref="A116"/>
-    <hyperlink r:id="rId45" ref="A117"/>
-    <hyperlink r:id="rId46" ref="A118"/>
-    <hyperlink r:id="rId47" ref="A125"/>
-    <hyperlink r:id="rId48" ref="A129"/>
-    <hyperlink r:id="rId49" ref="A130"/>
-    <hyperlink r:id="rId50" ref="A131"/>
-    <hyperlink r:id="rId51" ref="A133"/>
-    <hyperlink r:id="rId52" ref="A134"/>
-    <hyperlink r:id="rId53" ref="A135"/>
-    <hyperlink r:id="rId54" ref="A136"/>
-    <hyperlink r:id="rId55" ref="A137"/>
-    <hyperlink r:id="rId56" ref="A138"/>
-    <hyperlink r:id="rId57" ref="A139"/>
-    <hyperlink r:id="rId58" ref="A140"/>
-    <hyperlink r:id="rId59" ref="A141"/>
-    <hyperlink r:id="rId60" ref="A142"/>
-    <hyperlink r:id="rId61" ref="A143"/>
-    <hyperlink r:id="rId62" ref="A168"/>
-    <hyperlink r:id="rId63" ref="A171"/>
-    <hyperlink r:id="rId64" ref="A179"/>
-    <hyperlink r:id="rId65" ref="A180"/>
-    <hyperlink r:id="rId66" ref="A187"/>
-    <hyperlink r:id="rId67" ref="A188"/>
-    <hyperlink r:id="rId68" ref="A189"/>
-    <hyperlink r:id="rId69" ref="A194"/>
-    <hyperlink r:id="rId70" ref="A197"/>
-    <hyperlink r:id="rId71" ref="A198"/>
-    <hyperlink r:id="rId72" ref="A199"/>
-    <hyperlink r:id="rId73" ref="A201"/>
-    <hyperlink r:id="rId74" ref="A202"/>
-    <hyperlink r:id="rId75" ref="A208"/>
-    <hyperlink r:id="rId76" ref="A209"/>
-    <hyperlink r:id="rId77" ref="A216"/>
-    <hyperlink r:id="rId78" ref="A221"/>
-    <hyperlink r:id="rId79" ref="A222"/>
-    <hyperlink r:id="rId80" ref="A223"/>
-    <hyperlink r:id="rId81" ref="A224"/>
-    <hyperlink r:id="rId82" ref="A226"/>
-    <hyperlink r:id="rId83" ref="A227"/>
-    <hyperlink r:id="rId84" ref="A228"/>
-    <hyperlink r:id="rId85" ref="A229"/>
-    <hyperlink r:id="rId86" ref="A230"/>
-    <hyperlink r:id="rId87" ref="A231"/>
-    <hyperlink r:id="rId88" ref="A232"/>
-    <hyperlink r:id="rId89" ref="A233"/>
-    <hyperlink r:id="rId90" ref="A234"/>
-    <hyperlink r:id="rId91" ref="A235"/>
-    <hyperlink r:id="rId92" ref="A237"/>
-    <hyperlink r:id="rId93" ref="A241"/>
-    <hyperlink r:id="rId94" ref="A245"/>
-    <hyperlink r:id="rId95" ref="A248"/>
-    <hyperlink r:id="rId96" ref="A249"/>
-    <hyperlink r:id="rId97" ref="A250"/>
-    <hyperlink r:id="rId98" ref="A252"/>
-    <hyperlink r:id="rId99" ref="A253"/>
-    <hyperlink r:id="rId100" ref="A254"/>
-    <hyperlink r:id="rId101" ref="A255"/>
-    <hyperlink r:id="rId102" ref="A257"/>
-    <hyperlink r:id="rId103" ref="A258"/>
-    <hyperlink r:id="rId104" ref="A261"/>
-    <hyperlink r:id="rId105" ref="A262"/>
-    <hyperlink r:id="rId106" ref="A267"/>
-    <hyperlink r:id="rId107" ref="A268"/>
-    <hyperlink r:id="rId108" ref="A269"/>
-    <hyperlink r:id="rId109" ref="A270"/>
-    <hyperlink r:id="rId110" ref="A273"/>
-    <hyperlink r:id="rId111" ref="A274"/>
-    <hyperlink r:id="rId112" ref="A275"/>
-    <hyperlink r:id="rId113" ref="A276"/>
-    <hyperlink r:id="rId114" ref="A277"/>
-    <hyperlink r:id="rId115" ref="A280"/>
-    <hyperlink r:id="rId116" ref="A281"/>
-    <hyperlink r:id="rId117" ref="A283"/>
-    <hyperlink r:id="rId118" ref="A284"/>
-    <hyperlink r:id="rId119" ref="A287"/>
-    <hyperlink r:id="rId120" ref="A288"/>
-    <hyperlink r:id="rId121" ref="A289"/>
-    <hyperlink r:id="rId122" ref="A292"/>
-    <hyperlink r:id="rId123" ref="A293"/>
-    <hyperlink r:id="rId124" ref="A294"/>
-    <hyperlink r:id="rId125" ref="A295"/>
-    <hyperlink r:id="rId126" ref="A296"/>
-    <hyperlink r:id="rId127" ref="A297"/>
-    <hyperlink r:id="rId128" ref="A298"/>
-    <hyperlink r:id="rId129" ref="A299"/>
-    <hyperlink r:id="rId130" ref="A300"/>
-    <hyperlink r:id="rId131" ref="A301"/>
-    <hyperlink r:id="rId132" ref="A302"/>
-    <hyperlink r:id="rId133" ref="A303"/>
-    <hyperlink r:id="rId134" ref="A304"/>
-    <hyperlink r:id="rId135" ref="A305"/>
-    <hyperlink r:id="rId136" ref="A306"/>
-    <hyperlink r:id="rId137" ref="A307"/>
-    <hyperlink r:id="rId138" ref="A312"/>
-    <hyperlink r:id="rId139" ref="A320"/>
-    <hyperlink r:id="rId140" ref="A328"/>
-    <hyperlink r:id="rId141" ref="A340"/>
-    <hyperlink r:id="rId142" ref="A356"/>
-    <hyperlink r:id="rId143" ref="A361"/>
-    <hyperlink r:id="rId144" ref="A362"/>
-    <hyperlink r:id="rId145" ref="A369"/>
-    <hyperlink r:id="rId146" ref="A370"/>
-    <hyperlink r:id="rId147" ref="A371"/>
-    <hyperlink r:id="rId148" ref="A372"/>
-    <hyperlink r:id="rId149" ref="A373"/>
-    <hyperlink r:id="rId150" ref="A374"/>
-    <hyperlink r:id="rId151" ref="A375"/>
-    <hyperlink r:id="rId152" ref="A376"/>
-    <hyperlink r:id="rId153" ref="A377"/>
-    <hyperlink r:id="rId154" ref="A378"/>
-    <hyperlink r:id="rId155" ref="A379"/>
-    <hyperlink r:id="rId156" ref="A380"/>
-    <hyperlink r:id="rId157" ref="A381"/>
-    <hyperlink r:id="rId158" ref="A382"/>
-    <hyperlink r:id="rId159" ref="A383"/>
-    <hyperlink r:id="rId160" ref="A384"/>
-    <hyperlink r:id="rId161" ref="A385"/>
-    <hyperlink r:id="rId162" ref="A386"/>
-    <hyperlink r:id="rId163" ref="A387"/>
-    <hyperlink r:id="rId164" ref="A388"/>
-    <hyperlink r:id="rId165" ref="A389"/>
-    <hyperlink r:id="rId166" ref="A390"/>
-    <hyperlink r:id="rId167" ref="A391"/>
-    <hyperlink r:id="rId168" ref="A392"/>
-    <hyperlink r:id="rId169" ref="A393"/>
-    <hyperlink r:id="rId170" ref="A394"/>
-    <hyperlink r:id="rId171" ref="A395"/>
-    <hyperlink r:id="rId172" ref="A396"/>
-    <hyperlink r:id="rId173" ref="A397"/>
-    <hyperlink r:id="rId174" ref="A398"/>
-    <hyperlink r:id="rId175" ref="A399"/>
-    <hyperlink r:id="rId176" ref="A400"/>
-    <hyperlink r:id="rId177" ref="A401"/>
-    <hyperlink r:id="rId178" ref="A402"/>
-    <hyperlink r:id="rId179" ref="A403"/>
-    <hyperlink r:id="rId180" ref="A404"/>
-    <hyperlink r:id="rId181" ref="A405"/>
-    <hyperlink r:id="rId182" ref="A406"/>
-    <hyperlink r:id="rId183" ref="A407"/>
-    <hyperlink r:id="rId184" ref="A408"/>
-    <hyperlink r:id="rId185" ref="A410"/>
-    <hyperlink r:id="rId186" ref="A411"/>
-    <hyperlink r:id="rId187" ref="A412"/>
-    <hyperlink r:id="rId188" ref="A413"/>
-    <hyperlink r:id="rId189" ref="A414"/>
-    <hyperlink r:id="rId190" ref="A415"/>
-    <hyperlink r:id="rId191" ref="A416"/>
-    <hyperlink r:id="rId192" ref="A417"/>
-    <hyperlink r:id="rId193" ref="A418"/>
-    <hyperlink r:id="rId194" ref="A419"/>
-    <hyperlink r:id="rId195" ref="A420"/>
-    <hyperlink r:id="rId196" ref="A421"/>
-    <hyperlink r:id="rId197" ref="A422"/>
-    <hyperlink r:id="rId198" ref="A423"/>
-    <hyperlink r:id="rId199" ref="A424"/>
-    <hyperlink r:id="rId200" ref="A425"/>
-    <hyperlink r:id="rId201" ref="A426"/>
-    <hyperlink r:id="rId202" ref="A427"/>
-    <hyperlink r:id="rId203" ref="A428"/>
-    <hyperlink r:id="rId204" ref="A429"/>
-    <hyperlink r:id="rId205" ref="A430"/>
-    <hyperlink r:id="rId206" ref="A431"/>
-    <hyperlink r:id="rId207" ref="A435"/>
-    <hyperlink r:id="rId208" ref="A436"/>
-    <hyperlink r:id="rId209" ref="A437"/>
-    <hyperlink r:id="rId210" ref="A439"/>
-    <hyperlink r:id="rId211" ref="A440"/>
-    <hyperlink r:id="rId212" ref="A441"/>
-    <hyperlink r:id="rId213" ref="A442"/>
-    <hyperlink r:id="rId214" ref="A443"/>
-    <hyperlink r:id="rId215" ref="A444"/>
-    <hyperlink r:id="rId216" ref="A445"/>
-    <hyperlink r:id="rId217" ref="A446"/>
-    <hyperlink r:id="rId218" ref="A447"/>
-    <hyperlink r:id="rId219" ref="A448"/>
-    <hyperlink r:id="rId220" ref="A449"/>
-    <hyperlink r:id="rId221" ref="A450"/>
-    <hyperlink r:id="rId222" ref="A451"/>
-    <hyperlink r:id="rId223" ref="A452"/>
-    <hyperlink r:id="rId224" ref="A453"/>
-    <hyperlink r:id="rId225" ref="A454"/>
-    <hyperlink r:id="rId226" ref="A457"/>
-    <hyperlink r:id="rId227" ref="A461"/>
-    <hyperlink r:id="rId228" ref="A462"/>
-    <hyperlink r:id="rId229" ref="A464"/>
-    <hyperlink r:id="rId230" ref="A465"/>
-    <hyperlink r:id="rId231" ref="A466"/>
-    <hyperlink r:id="rId232" ref="A468"/>
-    <hyperlink r:id="rId233" ref="A469"/>
-    <hyperlink r:id="rId234" ref="A470"/>
-    <hyperlink r:id="rId235" ref="A471"/>
-    <hyperlink r:id="rId236" ref="A472"/>
-    <hyperlink r:id="rId237" ref="A475"/>
-    <hyperlink r:id="rId238" ref="A477"/>
-    <hyperlink r:id="rId239" ref="A478"/>
-    <hyperlink r:id="rId240" ref="A479"/>
-    <hyperlink r:id="rId241" ref="A480"/>
-    <hyperlink r:id="rId242" ref="A481"/>
-    <hyperlink r:id="rId243" ref="A482"/>
-    <hyperlink r:id="rId244" ref="A483"/>
-    <hyperlink r:id="rId245" ref="A485"/>
-    <hyperlink r:id="rId246" ref="A486"/>
-    <hyperlink r:id="rId247" ref="A487"/>
-    <hyperlink r:id="rId248" ref="A488"/>
-    <hyperlink r:id="rId249" ref="A489"/>
-    <hyperlink r:id="rId250" ref="A490"/>
-    <hyperlink r:id="rId251" ref="A491"/>
-    <hyperlink r:id="rId252" ref="A492"/>
-    <hyperlink r:id="rId253" ref="A493"/>
-    <hyperlink r:id="rId254" ref="A494"/>
-    <hyperlink r:id="rId255" ref="A495"/>
-    <hyperlink r:id="rId256" ref="A496"/>
-    <hyperlink r:id="rId257" ref="A497"/>
-    <hyperlink r:id="rId258" ref="A498"/>
-    <hyperlink r:id="rId259" ref="A500"/>
-    <hyperlink r:id="rId260" ref="A501"/>
-    <hyperlink r:id="rId261" ref="A502"/>
-    <hyperlink r:id="rId262" ref="A503"/>
-    <hyperlink r:id="rId263" ref="A504"/>
-    <hyperlink r:id="rId264" ref="A505"/>
-    <hyperlink r:id="rId265" ref="A506"/>
-    <hyperlink r:id="rId266" ref="A507"/>
-    <hyperlink r:id="rId267" ref="A508"/>
-    <hyperlink r:id="rId268" ref="A511"/>
-    <hyperlink r:id="rId269" ref="A512"/>
-    <hyperlink r:id="rId270" ref="A517"/>
-    <hyperlink r:id="rId271" ref="A519"/>
-    <hyperlink r:id="rId272" ref="A520"/>
-    <hyperlink r:id="rId273" ref="A521"/>
-    <hyperlink r:id="rId274" ref="A522"/>
-    <hyperlink r:id="rId275" ref="A524"/>
-    <hyperlink r:id="rId276" ref="A525"/>
-    <hyperlink r:id="rId277" ref="A526"/>
-    <hyperlink r:id="rId278" ref="A527"/>
-    <hyperlink r:id="rId279" ref="A528"/>
-    <hyperlink r:id="rId280" ref="A529"/>
-    <hyperlink r:id="rId281" ref="A530"/>
-    <hyperlink r:id="rId282" ref="A531"/>
-    <hyperlink r:id="rId283" ref="A533"/>
-    <hyperlink r:id="rId284" ref="A534"/>
-    <hyperlink r:id="rId285" ref="A535"/>
-    <hyperlink r:id="rId286" ref="A536"/>
-    <hyperlink r:id="rId287" ref="A537"/>
-    <hyperlink r:id="rId288" ref="A538"/>
-    <hyperlink r:id="rId289" ref="A542"/>
-    <hyperlink r:id="rId290" ref="A543"/>
-    <hyperlink r:id="rId291" ref="A544"/>
-    <hyperlink r:id="rId292" ref="A545"/>
-    <hyperlink r:id="rId293" ref="A546"/>
-    <hyperlink r:id="rId294" ref="A547"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A18" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A19" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A20" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A21" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A22" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A28" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A31" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A38" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A39" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A41" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A42" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A43" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A44" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A45" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A48" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A51" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A53" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A60" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A69" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A72" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A73" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A75" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A77" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A78" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A79" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A81" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A84" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A85" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A87" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A88" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A92" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A93" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A94" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A95" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A96" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A97" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A98" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A99" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A100" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A101" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A110" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A113" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A116" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A117" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A118" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A125" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A129" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A130" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A131" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="A133" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A134" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="A135" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A136" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="A137" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="A138" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="A139" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="A140" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="A141" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="A142" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="A143" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="A168" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="A171" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="A179" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="A180" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="A187" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="A188" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="A189" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="A194" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="A197" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="A198" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="A199" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="A201" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="A202" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="A208" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="A209" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="A216" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="A221" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="A222" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="A223" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="A224" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="A226" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="A227" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="A228" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="A229" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="A230" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="A231" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="A232" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="A233" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="A234" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="A235" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="A237" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="A241" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="A245" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="A248" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="A249" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="A250" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="A252" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="A253" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="A254" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="A255" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="A257" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="A258" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="A261" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="A262" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="A267" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="A268" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="A269" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="A270" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="A273" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="A274" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="A275" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="A276" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="A277" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="A280" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="A281" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="A283" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="A284" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="A287" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="A288" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="A289" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="A292" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="A293" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="A294" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="A295" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="A296" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="A297" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="A298" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="A299" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="A300" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="A301" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="A302" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="A303" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="A304" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="A305" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="A306" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="A307" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="A312" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="A320" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="A328" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="A340" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="A356" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="A361" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="A362" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="A369" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="A370" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="A371" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="A372" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="A373" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="A374" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="A375" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="A376" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="A377" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="A378" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="A379" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="A380" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="A381" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="A382" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="A383" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="A384" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="A385" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="A386" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="A387" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="A388" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="A389" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="A390" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="A391" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="A392" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="A393" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="A394" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="A395" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="A396" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="A397" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="A398" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="A399" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="A400" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="A401" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="A402" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="A403" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="A404" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="A405" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="A406" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="A407" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="A408" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="A410" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="A411" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="A412" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="A413" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="A414" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="A415" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="A416" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="A417" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="A418" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="A419" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="A420" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="A421" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="A422" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="A423" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="A424" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="A425" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="A426" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="A427" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="A428" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="A429" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="A430" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="A431" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="A435" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="A436" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="A437" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="A439" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="A440" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="A441" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="A442" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="A443" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="A444" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="A445" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="A446" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="A447" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="A448" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="A449" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="A450" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="A451" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="A452" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="A453" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="A454" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="A457" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="A461" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="A462" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="A464" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="A465" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="A466" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="A468" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="A469" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="A470" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="A471" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="A472" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="A475" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="A477" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="A478" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="A479" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="A480" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="A481" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="A482" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="A483" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="A485" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="A486" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="A487" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="A488" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="A489" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="A490" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="A491" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="A492" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="A493" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="A494" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="A495" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="A496" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="A497" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="A498" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="A500" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="A501" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="A502" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="A503" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="A504" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="A505" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="A506" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="A507" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="A508" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="A511" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="A512" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="A517" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="A519" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="A520" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="A521" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="A522" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="A524" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="A525" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="A526" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="A527" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="A528" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="A529" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="A530" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="A531" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="A533" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="A534" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="A535" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="A536" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="A537" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="A538" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="A542" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="A543" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="A544" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="A545" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="A546" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="A547" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
   </hyperlinks>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
-  <drawing r:id="rId295"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" cellComments="atEnd"/>
 </worksheet>
 </file>